--- a/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.617499014170278</v>
+        <v>2.617499014170448</v>
       </c>
       <c r="C2">
-        <v>2.398608637081622</v>
+        <v>2.398608637081452</v>
       </c>
       <c r="D2">
-        <v>0.2118107220204166</v>
+        <v>0.2118107220199477</v>
       </c>
       <c r="E2">
-        <v>0.1374883667278759</v>
+        <v>0.1374883667278546</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.636662775158612</v>
+        <v>9.636662775158698</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.252229605538645</v>
+        <v>1.252229605538659</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.201051951706376</v>
+        <v>2.201051951706489</v>
       </c>
       <c r="C3">
-        <v>2.041207016244869</v>
+        <v>2.041207016244357</v>
       </c>
       <c r="D3">
-        <v>0.1805114893726341</v>
+        <v>0.1805114893727904</v>
       </c>
       <c r="E3">
-        <v>0.1183847567481529</v>
+        <v>0.1183847567481102</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.351876345474949</v>
+        <v>8.351876345475034</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.063572959206496</v>
+        <v>1.063572959206503</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.958419064909179</v>
+        <v>1.958419064908895</v>
       </c>
       <c r="C4">
         <v>1.830190734049836</v>
       </c>
       <c r="D4">
-        <v>0.1620240458316999</v>
+        <v>0.1620240458318989</v>
       </c>
       <c r="E4">
         <v>0.107055332917291</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.588965942049015</v>
+        <v>7.588965942048816</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.9526170720162241</v>
+        <v>0.9526170720162028</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.86224979030527</v>
+        <v>1.862249790305441</v>
       </c>
       <c r="C5">
-        <v>1.745937794301426</v>
+        <v>1.745937794301483</v>
       </c>
       <c r="D5">
-        <v>0.1546414039307535</v>
+        <v>0.1546414039303414</v>
       </c>
       <c r="E5">
-        <v>0.1025215492785385</v>
+        <v>0.1025215492785456</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.9084127198476821</v>
+        <v>0.908412719847675</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.846429254836067</v>
+        <v>1.846429254836323</v>
       </c>
       <c r="C6">
-        <v>1.732042643040245</v>
+        <v>1.732042643040359</v>
       </c>
       <c r="D6">
-        <v>0.1534237990453846</v>
+        <v>0.1534237990456688</v>
       </c>
       <c r="E6">
-        <v>0.1017732711400043</v>
+        <v>0.1017732711400789</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.9011280425483363</v>
+        <v>0.9011280425482866</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.957111832676787</v>
+        <v>1.957111832676731</v>
       </c>
       <c r="C7">
-        <v>1.82904789151786</v>
+        <v>1.829047891517405</v>
       </c>
       <c r="D7">
-        <v>0.1619239081070134</v>
+        <v>0.1619239081066155</v>
       </c>
       <c r="E7">
-        <v>0.1069938737201532</v>
+        <v>0.106993873720068</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.584824778856614</v>
+        <v>7.584824778856444</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.470812782144435</v>
+        <v>2.470812782144321</v>
       </c>
       <c r="C8">
-        <v>2.273375521521643</v>
+        <v>2.273375521522041</v>
       </c>
       <c r="D8">
-        <v>0.2008457536467034</v>
+        <v>0.2008457536470445</v>
       </c>
       <c r="E8">
-        <v>0.130806824826923</v>
+        <v>0.130806824826891</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.187488276013624</v>
+        <v>9.187488276013738</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.186025610701002</v>
+        <v>1.18602561070103</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.61501631203339</v>
+        <v>3.615016312033958</v>
       </c>
       <c r="C9">
-        <v>3.233251118883345</v>
+        <v>3.233251118883743</v>
       </c>
       <c r="D9">
-        <v>0.2848067837898043</v>
+        <v>0.2848067837900032</v>
       </c>
       <c r="E9">
-        <v>0.1816671250615798</v>
+        <v>0.1816671250614306</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.60419009384265</v>
+        <v>12.6041900938429</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.601457877914527</v>
+        <v>4.601457877914868</v>
       </c>
       <c r="C10">
-        <v>4.032869382517902</v>
+        <v>4.03286938251847</v>
       </c>
       <c r="D10">
-        <v>0.3545661260540385</v>
+        <v>0.3545661260537827</v>
       </c>
       <c r="E10">
-        <v>0.2233869917951736</v>
+        <v>0.2233869917952021</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.40663081800096</v>
+        <v>15.40663081800153</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.124502423730078</v>
+        <v>2.12450242373005</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.103133668322698</v>
+        <v>5.103133668322926</v>
       </c>
       <c r="C11">
-        <v>4.430765261154704</v>
+        <v>4.430765261154477</v>
       </c>
       <c r="D11">
-        <v>0.3892010225795559</v>
+        <v>0.3892010225800107</v>
       </c>
       <c r="E11">
-        <v>0.243912083215946</v>
+        <v>0.2439120832160171</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.78654151953344</v>
+        <v>16.78654151953413</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.338936855855351</v>
+        <v>2.33893685585538</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.30341019446422</v>
+        <v>5.303410194463993</v>
       </c>
       <c r="C12">
-        <v>4.58806061864243</v>
+        <v>4.588060618643055</v>
       </c>
       <c r="D12">
-        <v>0.4028768550703461</v>
+        <v>0.4028768550707014</v>
       </c>
       <c r="E12">
-        <v>0.2519810260843443</v>
+        <v>0.25198102608433</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.32933737779246</v>
+        <v>17.32933737779257</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.423907946216247</v>
+        <v>2.423907946216218</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.259763860928445</v>
+        <v>5.259763860928558</v>
       </c>
       <c r="C13">
-        <v>4.553854956681164</v>
+        <v>4.553854956680482</v>
       </c>
       <c r="D13">
-        <v>0.3999036909293068</v>
+        <v>0.3999036909294205</v>
       </c>
       <c r="E13">
         <v>0.2502285494401448</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17.21143179321075</v>
+        <v>17.21143179321052</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.405420495046329</v>
+        <v>2.4054204950463</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.119384684857664</v>
+        <v>5.119384684857721</v>
       </c>
       <c r="C14">
-        <v>4.443561078999721</v>
+        <v>4.443561078999096</v>
       </c>
       <c r="D14">
-        <v>0.3903138864951927</v>
+        <v>0.3903138864959885</v>
       </c>
       <c r="E14">
-        <v>0.2445694490503243</v>
+        <v>0.2445694490502532</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.83075507411252</v>
+        <v>16.83075507411246</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.34584496962016</v>
+        <v>2.345844969620174</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.034838513186628</v>
+        <v>5.034838513186912</v>
       </c>
       <c r="C15">
-        <v>4.376927493433413</v>
+        <v>4.376927493435574</v>
       </c>
       <c r="D15">
-        <v>0.3845180370667407</v>
+        <v>0.3845180370666696</v>
       </c>
       <c r="E15">
-        <v>0.2411443888771103</v>
+        <v>0.2411443888771743</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.6004036796798</v>
+        <v>16.60040367967991</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.569944281589585</v>
+        <v>4.569944281589642</v>
       </c>
       <c r="C16">
-        <v>4.007684814836239</v>
+        <v>4.00768481483658</v>
       </c>
       <c r="D16">
-        <v>0.3523720728872917</v>
+        <v>0.352372072886098</v>
       </c>
       <c r="E16">
-        <v>0.2220824827912153</v>
+        <v>0.2220824827911656</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.31896226929598</v>
+        <v>15.31896226929621</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.299916154937989</v>
+        <v>4.299916154938103</v>
       </c>
       <c r="C17">
-        <v>3.790939153138595</v>
+        <v>3.790939153138538</v>
       </c>
       <c r="D17">
-        <v>0.3334807450842163</v>
+        <v>0.3334807450845005</v>
       </c>
       <c r="E17">
-        <v>0.2108295372776965</v>
+        <v>0.2108295372777178</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.56285630576414</v>
+        <v>14.56285630576426</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.994489181208678</v>
+        <v>1.994489181208735</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.149378960438241</v>
+        <v>4.149378960437957</v>
       </c>
       <c r="C18">
-        <v>3.669355515876589</v>
+        <v>3.669355515876646</v>
       </c>
       <c r="D18">
-        <v>0.322877051430936</v>
+        <v>0.3228770514299839</v>
       </c>
       <c r="E18">
-        <v>0.2044970564273427</v>
+        <v>0.2044970564273143</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14.13746107671849</v>
+        <v>14.13746107671821</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.929258628097884</v>
+        <v>1.929258628097827</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.099163781527523</v>
+        <v>4.099163781527579</v>
       </c>
       <c r="C19">
-        <v>3.6286766355949</v>
+        <v>3.628676635595184</v>
       </c>
       <c r="D19">
-        <v>0.3193282962186146</v>
+        <v>0.3193282962186856</v>
       </c>
       <c r="E19">
-        <v>0.2023751730255441</v>
+        <v>0.2023751730255086</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.99493281019858</v>
+        <v>13.99493281019843</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.907450591259973</v>
+        <v>1.907450591259945</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.328150568643366</v>
+        <v>4.328150568643537</v>
       </c>
       <c r="C20">
-        <v>3.813682674267739</v>
+        <v>3.813682674267511</v>
       </c>
       <c r="D20">
-        <v>0.3354637628191028</v>
+        <v>0.335463762820126</v>
       </c>
       <c r="E20">
-        <v>0.2120124990005223</v>
+        <v>0.212012499000501</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.64233079490751</v>
+        <v>14.64233079490771</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.006699387817648</v>
+        <v>2.006699387817633</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.160310874308038</v>
+        <v>5.160310874307413</v>
       </c>
       <c r="C21">
-        <v>4.47576029159444</v>
+        <v>4.475760291593701</v>
       </c>
       <c r="D21">
-        <v>0.3931140103226198</v>
+        <v>0.3931140103224919</v>
       </c>
       <c r="E21">
-        <v>0.2462228812774896</v>
+        <v>0.2462228812774754</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.94196832864554</v>
+        <v>16.94196832864588</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.363231750910941</v>
+        <v>2.363231750910984</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.766409437939956</v>
+        <v>5.766409437939728</v>
       </c>
       <c r="C22">
-        <v>4.948433827907024</v>
+        <v>4.948433827906001</v>
       </c>
       <c r="D22">
-        <v>0.4341724606384361</v>
+        <v>0.4341724606384645</v>
       </c>
       <c r="E22">
-        <v>0.2703683933059722</v>
+        <v>0.2703683933058869</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18.5670454368128</v>
+        <v>18.56704543681275</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.618998092592889</v>
+        <v>2.618998092592847</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.68625011873041</v>
+        <v>17.68625011873036</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.479973802220599</v>
+        <v>2.479973802220528</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.315371319773647</v>
+        <v>4.315371319773362</v>
       </c>
       <c r="C24">
-        <v>3.803391020732647</v>
+        <v>3.803391020732249</v>
       </c>
       <c r="D24">
-        <v>0.3345664493837717</v>
+        <v>0.3345664493841269</v>
       </c>
       <c r="E24">
-        <v>0.2114772604851467</v>
+        <v>0.2114772604850259</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.60637176862156</v>
+        <v>14.60637176862161</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.001173840854634</v>
+        <v>2.001173840854591</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.285437846741218</v>
+        <v>3.285437846741672</v>
       </c>
       <c r="C25">
-        <v>2.96058866901916</v>
+        <v>2.960588669018478</v>
       </c>
       <c r="D25">
-        <v>0.2609780139175513</v>
+        <v>0.2609780139175655</v>
       </c>
       <c r="E25">
-        <v>0.1673033742621328</v>
+        <v>0.1673033742621826</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.63960534664292</v>
+        <v>11.63960534664307</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.550521577669812</v>
+        <v>1.550521577669798</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.617499014170448</v>
+        <v>2.617499014170278</v>
       </c>
       <c r="C2">
-        <v>2.398608637081452</v>
+        <v>2.398608637081622</v>
       </c>
       <c r="D2">
-        <v>0.2118107220199477</v>
+        <v>0.2118107220204166</v>
       </c>
       <c r="E2">
-        <v>0.1374883667278546</v>
+        <v>0.1374883667278759</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="H2">
-        <v>9.636662775158698</v>
+        <v>9.636662775158612</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.252229605538659</v>
+        <v>1.252229605538645</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.201051951706489</v>
+        <v>2.201051951706376</v>
       </c>
       <c r="C3">
-        <v>2.041207016244357</v>
+        <v>2.041207016244869</v>
       </c>
       <c r="D3">
-        <v>0.1805114893727904</v>
+        <v>0.1805114893726341</v>
       </c>
       <c r="E3">
-        <v>0.1183847567481102</v>
+        <v>0.1183847567481529</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -468,7 +468,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8.351876345475034</v>
+        <v>8.351876345474949</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.063572959206503</v>
+        <v>1.063572959206496</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,13 +488,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.958419064908895</v>
+        <v>1.958419064909179</v>
       </c>
       <c r="C4">
         <v>1.830190734049836</v>
       </c>
       <c r="D4">
-        <v>0.1620240458318989</v>
+        <v>0.1620240458316999</v>
       </c>
       <c r="E4">
         <v>0.107055332917291</v>
@@ -506,7 +506,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.588965942048816</v>
+        <v>7.588965942049015</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.9526170720162028</v>
+        <v>0.9526170720162241</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,16 +526,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.862249790305441</v>
+        <v>1.86224979030527</v>
       </c>
       <c r="C5">
-        <v>1.745937794301483</v>
+        <v>1.745937794301426</v>
       </c>
       <c r="D5">
-        <v>0.1546414039303414</v>
+        <v>0.1546414039307535</v>
       </c>
       <c r="E5">
-        <v>0.1025215492785456</v>
+        <v>0.1025215492785385</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.908412719847675</v>
+        <v>0.9084127198476821</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,16 +564,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.846429254836323</v>
+        <v>1.846429254836067</v>
       </c>
       <c r="C6">
-        <v>1.732042643040359</v>
+        <v>1.732042643040245</v>
       </c>
       <c r="D6">
-        <v>0.1534237990456688</v>
+        <v>0.1534237990453846</v>
       </c>
       <c r="E6">
-        <v>0.1017732711400789</v>
+        <v>0.1017732711400043</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.9011280425482866</v>
+        <v>0.9011280425483363</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,16 +602,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.957111832676731</v>
+        <v>1.957111832676787</v>
       </c>
       <c r="C7">
-        <v>1.829047891517405</v>
+        <v>1.82904789151786</v>
       </c>
       <c r="D7">
-        <v>0.1619239081066155</v>
+        <v>0.1619239081070134</v>
       </c>
       <c r="E7">
-        <v>0.106993873720068</v>
+        <v>0.1069938737201532</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -620,7 +620,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.584824778856444</v>
+        <v>7.584824778856614</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,16 +640,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.470812782144321</v>
+        <v>2.470812782144435</v>
       </c>
       <c r="C8">
-        <v>2.273375521522041</v>
+        <v>2.273375521521643</v>
       </c>
       <c r="D8">
-        <v>0.2008457536470445</v>
+        <v>0.2008457536467034</v>
       </c>
       <c r="E8">
-        <v>0.130806824826891</v>
+        <v>0.130806824826923</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>9.187488276013738</v>
+        <v>9.187488276013624</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.18602561070103</v>
+        <v>1.186025610701002</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,16 +678,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.615016312033958</v>
+        <v>3.61501631203339</v>
       </c>
       <c r="C9">
-        <v>3.233251118883743</v>
+        <v>3.233251118883345</v>
       </c>
       <c r="D9">
-        <v>0.2848067837900032</v>
+        <v>0.2848067837898043</v>
       </c>
       <c r="E9">
-        <v>0.1816671250614306</v>
+        <v>0.1816671250615798</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -696,7 +696,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>12.6041900938429</v>
+        <v>12.60419009384265</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.601457877914868</v>
+        <v>4.601457877914527</v>
       </c>
       <c r="C10">
-        <v>4.03286938251847</v>
+        <v>4.032869382517902</v>
       </c>
       <c r="D10">
-        <v>0.3545661260537827</v>
+        <v>0.3545661260540385</v>
       </c>
       <c r="E10">
-        <v>0.2233869917952021</v>
+        <v>0.2233869917951736</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -734,7 +734,7 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>15.40663081800153</v>
+        <v>15.40663081800096</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.12450242373005</v>
+        <v>2.124502423730078</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,16 +754,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.103133668322926</v>
+        <v>5.103133668322698</v>
       </c>
       <c r="C11">
-        <v>4.430765261154477</v>
+        <v>4.430765261154704</v>
       </c>
       <c r="D11">
-        <v>0.3892010225800107</v>
+        <v>0.3892010225795559</v>
       </c>
       <c r="E11">
-        <v>0.2439120832160171</v>
+        <v>0.243912083215946</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -772,7 +772,7 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16.78654151953413</v>
+        <v>16.78654151953344</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.33893685585538</v>
+        <v>2.338936855855351</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,16 +792,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.303410194463993</v>
+        <v>5.30341019446422</v>
       </c>
       <c r="C12">
-        <v>4.588060618643055</v>
+        <v>4.58806061864243</v>
       </c>
       <c r="D12">
-        <v>0.4028768550707014</v>
+        <v>0.4028768550703461</v>
       </c>
       <c r="E12">
-        <v>0.25198102608433</v>
+        <v>0.2519810260843443</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17.32933737779257</v>
+        <v>17.32933737779246</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.423907946216218</v>
+        <v>2.423907946216247</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,13 +830,13 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.259763860928558</v>
+        <v>5.259763860928445</v>
       </c>
       <c r="C13">
-        <v>4.553854956680482</v>
+        <v>4.553854956681164</v>
       </c>
       <c r="D13">
-        <v>0.3999036909294205</v>
+        <v>0.3999036909293068</v>
       </c>
       <c r="E13">
         <v>0.2502285494401448</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>17.21143179321052</v>
+        <v>17.21143179321075</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.4054204950463</v>
+        <v>2.405420495046329</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,16 +868,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.119384684857721</v>
+        <v>5.119384684857664</v>
       </c>
       <c r="C14">
-        <v>4.443561078999096</v>
+        <v>4.443561078999721</v>
       </c>
       <c r="D14">
-        <v>0.3903138864959885</v>
+        <v>0.3903138864951927</v>
       </c>
       <c r="E14">
-        <v>0.2445694490502532</v>
+        <v>0.2445694490503243</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16.83075507411246</v>
+        <v>16.83075507411252</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.345844969620174</v>
+        <v>2.34584496962016</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,16 +906,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.034838513186912</v>
+        <v>5.034838513186628</v>
       </c>
       <c r="C15">
-        <v>4.376927493435574</v>
+        <v>4.376927493433413</v>
       </c>
       <c r="D15">
-        <v>0.3845180370666696</v>
+        <v>0.3845180370667407</v>
       </c>
       <c r="E15">
-        <v>0.2411443888771743</v>
+        <v>0.2411443888771103</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -924,7 +924,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>16.60040367967991</v>
+        <v>16.6004036796798</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.569944281589642</v>
+        <v>4.569944281589585</v>
       </c>
       <c r="C16">
-        <v>4.00768481483658</v>
+        <v>4.007684814836239</v>
       </c>
       <c r="D16">
-        <v>0.352372072886098</v>
+        <v>0.3523720728872917</v>
       </c>
       <c r="E16">
-        <v>0.2220824827911656</v>
+        <v>0.2220824827912153</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>15.31896226929621</v>
+        <v>15.31896226929598</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,16 +982,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.299916154938103</v>
+        <v>4.299916154937989</v>
       </c>
       <c r="C17">
-        <v>3.790939153138538</v>
+        <v>3.790939153138595</v>
       </c>
       <c r="D17">
-        <v>0.3334807450845005</v>
+        <v>0.3334807450842163</v>
       </c>
       <c r="E17">
-        <v>0.2108295372777178</v>
+        <v>0.2108295372776965</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>14.56285630576426</v>
+        <v>14.56285630576414</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.994489181208735</v>
+        <v>1.994489181208678</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,16 +1020,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.149378960437957</v>
+        <v>4.149378960438241</v>
       </c>
       <c r="C18">
-        <v>3.669355515876646</v>
+        <v>3.669355515876589</v>
       </c>
       <c r="D18">
-        <v>0.3228770514299839</v>
+        <v>0.322877051430936</v>
       </c>
       <c r="E18">
-        <v>0.2044970564273143</v>
+        <v>0.2044970564273427</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>14.13746107671821</v>
+        <v>14.13746107671849</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.929258628097827</v>
+        <v>1.929258628097884</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,16 +1058,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.099163781527579</v>
+        <v>4.099163781527523</v>
       </c>
       <c r="C19">
-        <v>3.628676635595184</v>
+        <v>3.6286766355949</v>
       </c>
       <c r="D19">
-        <v>0.3193282962186856</v>
+        <v>0.3193282962186146</v>
       </c>
       <c r="E19">
-        <v>0.2023751730255086</v>
+        <v>0.2023751730255441</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>13.99493281019843</v>
+        <v>13.99493281019858</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.907450591259945</v>
+        <v>1.907450591259973</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,16 +1096,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.328150568643537</v>
+        <v>4.328150568643366</v>
       </c>
       <c r="C20">
-        <v>3.813682674267511</v>
+        <v>3.813682674267739</v>
       </c>
       <c r="D20">
-        <v>0.335463762820126</v>
+        <v>0.3354637628191028</v>
       </c>
       <c r="E20">
-        <v>0.212012499000501</v>
+        <v>0.2120124990005223</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>14.64233079490771</v>
+        <v>14.64233079490751</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.006699387817633</v>
+        <v>2.006699387817648</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,16 +1134,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.160310874307413</v>
+        <v>5.160310874308038</v>
       </c>
       <c r="C21">
-        <v>4.475760291593701</v>
+        <v>4.47576029159444</v>
       </c>
       <c r="D21">
-        <v>0.3931140103224919</v>
+        <v>0.3931140103226198</v>
       </c>
       <c r="E21">
-        <v>0.2462228812774754</v>
+        <v>0.2462228812774896</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>16.94196832864588</v>
+        <v>16.94196832864554</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.363231750910984</v>
+        <v>2.363231750910941</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,16 +1172,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.766409437939728</v>
+        <v>5.766409437939956</v>
       </c>
       <c r="C22">
-        <v>4.948433827906001</v>
+        <v>4.948433827907024</v>
       </c>
       <c r="D22">
-        <v>0.4341724606384645</v>
+        <v>0.4341724606384361</v>
       </c>
       <c r="E22">
-        <v>0.2703683933058869</v>
+        <v>0.2703683933059722</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18.56704543681275</v>
+        <v>18.5670454368128</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.618998092592847</v>
+        <v>2.618998092592889</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1228,7 +1228,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>17.68625011873036</v>
+        <v>17.68625011873041</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.479973802220528</v>
+        <v>2.479973802220599</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,16 +1248,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.315371319773362</v>
+        <v>4.315371319773647</v>
       </c>
       <c r="C24">
-        <v>3.803391020732249</v>
+        <v>3.803391020732647</v>
       </c>
       <c r="D24">
-        <v>0.3345664493841269</v>
+        <v>0.3345664493837717</v>
       </c>
       <c r="E24">
-        <v>0.2114772604850259</v>
+        <v>0.2114772604851467</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>14.60637176862161</v>
+        <v>14.60637176862156</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.001173840854591</v>
+        <v>2.001173840854634</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,16 +1286,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.285437846741672</v>
+        <v>3.285437846741218</v>
       </c>
       <c r="C25">
-        <v>2.960588669018478</v>
+        <v>2.96058866901916</v>
       </c>
       <c r="D25">
-        <v>0.2609780139175655</v>
+        <v>0.2609780139175513</v>
       </c>
       <c r="E25">
-        <v>0.1673033742621826</v>
+        <v>0.1673033742621328</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11.63960534664307</v>
+        <v>11.63960534664292</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.550521577669798</v>
+        <v>1.550521577669812</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,34 +406,37 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.617499014170278</v>
+        <v>2.57559484976008</v>
       </c>
       <c r="C2">
-        <v>2.398608637081622</v>
+        <v>2.375787712569775</v>
       </c>
       <c r="D2">
-        <v>0.2118107220204166</v>
+        <v>0.2103879126730703</v>
       </c>
       <c r="E2">
-        <v>0.1374883667278759</v>
+        <v>0.1362344129673936</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007569943947103808</v>
       </c>
       <c r="H2">
-        <v>9.636662775158612</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>9.635171673955028</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,36 +445,39 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.252229605538645</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>1.24181776543854</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.201051951706376</v>
+        <v>2.166977627802169</v>
       </c>
       <c r="C3">
-        <v>2.041207016244869</v>
+        <v>2.023531232024197</v>
       </c>
       <c r="D3">
-        <v>0.1805114893726341</v>
+        <v>0.1793409075972079</v>
       </c>
       <c r="E3">
-        <v>0.1183847567481529</v>
+        <v>0.117158260979302</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007732951087867623</v>
       </c>
       <c r="H3">
-        <v>8.351876345474949</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>8.359542236248444</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,36 +486,39 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.063572959206496</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1.055370547702708</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.958419064909179</v>
+        <v>1.928994820913459</v>
       </c>
       <c r="C4">
-        <v>1.830190734049836</v>
+        <v>1.815559694606691</v>
       </c>
       <c r="D4">
-        <v>0.1620240458316999</v>
+        <v>0.160996996953088</v>
       </c>
       <c r="E4">
-        <v>0.107055332917291</v>
+        <v>0.1058392464058002</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00078335624460595</v>
       </c>
       <c r="H4">
-        <v>7.588965942049015</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>7.601840118665734</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,36 +527,39 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.9526170720162241</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0.945706849685422</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.86224979030527</v>
+        <v>1.834694237812528</v>
       </c>
       <c r="C5">
-        <v>1.745937794301426</v>
+        <v>1.732527460755477</v>
       </c>
       <c r="D5">
-        <v>0.1546414039307535</v>
+        <v>0.1536706250049775</v>
       </c>
       <c r="E5">
-        <v>0.1025215492785385</v>
+        <v>0.1013083366652836</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007874796958136102</v>
       </c>
       <c r="H5">
-        <v>7.283390758404238</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>7.298306074982349</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,36 +568,39 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.9084127198476821</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0.9020173127316582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.846429254836067</v>
+        <v>1.819182745940765</v>
       </c>
       <c r="C6">
-        <v>1.732042643040245</v>
+        <v>1.71883401470194</v>
       </c>
       <c r="D6">
-        <v>0.1534237990453846</v>
+        <v>0.1524622453111277</v>
       </c>
       <c r="E6">
-        <v>0.1017732711400043</v>
+        <v>0.1005604594095892</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007881660779106737</v>
       </c>
       <c r="H6">
-        <v>7.232939608087804</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>7.248189518766765</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -594,36 +609,39 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.9011280425483363</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0.8948175206408919</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.957111832676787</v>
+        <v>1.927712881339005</v>
       </c>
       <c r="C7">
-        <v>1.82904789151786</v>
+        <v>1.814433386005874</v>
       </c>
       <c r="D7">
-        <v>0.1619239081070134</v>
+        <v>0.1608976263677562</v>
       </c>
       <c r="E7">
-        <v>0.1069938737201532</v>
+        <v>0.1057778312142261</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007834117473893018</v>
       </c>
       <c r="H7">
-        <v>7.584824778856614</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>7.597726785578402</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -632,36 +650,39 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.9520170823770044</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0.9451138455166941</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.470812782144435</v>
+        <v>2.431650108976726</v>
       </c>
       <c r="C8">
-        <v>2.273375521521643</v>
+        <v>2.252358297553656</v>
       </c>
       <c r="D8">
-        <v>0.2008457536467034</v>
+        <v>0.1995126942133822</v>
       </c>
       <c r="E8">
-        <v>0.130806824826923</v>
+        <v>0.1295638514664965</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007626107460185874</v>
       </c>
       <c r="H8">
-        <v>9.187488276013624</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>9.18925600537105</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,36 +691,39 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.186025610701002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>1.176391969633535</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.61501631203339</v>
+        <v>3.554627324970625</v>
       </c>
       <c r="C9">
-        <v>3.233251118883345</v>
+        <v>3.198231796196694</v>
       </c>
       <c r="D9">
-        <v>0.2848067837898043</v>
+        <v>0.282742840328055</v>
       </c>
       <c r="E9">
-        <v>0.1816671250615798</v>
+        <v>0.1803040155101456</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007216571401515064</v>
       </c>
       <c r="H9">
-        <v>12.60419009384265</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>12.57941767160125</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,36 +732,39 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.695904982034421</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>1.680129249218041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.601457877914527</v>
+        <v>4.522450034926635</v>
       </c>
       <c r="C10">
-        <v>4.032869382517902</v>
+        <v>3.985549676544281</v>
       </c>
       <c r="D10">
-        <v>0.3545661260540385</v>
+        <v>0.3518027203972025</v>
       </c>
       <c r="E10">
-        <v>0.2233869917951736</v>
+        <v>0.2218595400314811</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0006903978962048601</v>
       </c>
       <c r="H10">
-        <v>15.40663081800096</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>15.35649419888313</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,36 +773,39 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.124502423730078</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2.103146266194585</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.103133668322698</v>
+        <v>5.014297668761515</v>
       </c>
       <c r="C11">
-        <v>4.430765261154704</v>
+        <v>4.37696456013191</v>
       </c>
       <c r="D11">
-        <v>0.3892010225795559</v>
+        <v>0.3860505296234606</v>
       </c>
       <c r="E11">
-        <v>0.243912083215946</v>
+        <v>0.2422789510305989</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.000675565480493661</v>
       </c>
       <c r="H11">
-        <v>16.78654151953344</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>16.72239930669963</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,36 +814,39 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.338936855855351</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2.314574426408569</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.30341019446422</v>
+        <v>5.210554956647343</v>
       </c>
       <c r="C12">
-        <v>4.58806061864243</v>
+        <v>4.531613464625821</v>
       </c>
       <c r="D12">
-        <v>0.4028768550703461</v>
+        <v>0.3995649565002992</v>
       </c>
       <c r="E12">
-        <v>0.2519810260843443</v>
+        <v>0.2503012865619354</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0006698162470287893</v>
       </c>
       <c r="H12">
-        <v>17.32933737779246</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>17.25936330746924</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,36 +855,39 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.423907946216247</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>2.398305384367589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.259763860928445</v>
+        <v>5.167789737405144</v>
       </c>
       <c r="C13">
-        <v>4.553854956681164</v>
+        <v>4.497987748977721</v>
       </c>
       <c r="D13">
-        <v>0.3999036909293068</v>
+        <v>0.3966273225056511</v>
       </c>
       <c r="E13">
-        <v>0.2502285494401448</v>
+        <v>0.2485591886641458</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0006710612416497788</v>
       </c>
       <c r="H13">
-        <v>17.21143179321075</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>17.14274105275507</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,36 +896,39 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.405420495046329</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2.380090307795044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.119384684857664</v>
+        <v>5.03022477570272</v>
       </c>
       <c r="C14">
-        <v>4.443561078999721</v>
+        <v>4.389547007530723</v>
       </c>
       <c r="D14">
-        <v>0.3903138864951927</v>
+        <v>0.3871504498964811</v>
       </c>
       <c r="E14">
-        <v>0.2445694490503243</v>
+        <v>0.2429326312630025</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0006750954611169924</v>
       </c>
       <c r="H14">
-        <v>16.83075507411252</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>16.76614500102801</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,36 +937,39 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.34584496962016</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>2.321382820135241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.034838513186628</v>
+        <v>4.947359646830705</v>
       </c>
       <c r="C15">
-        <v>4.376927493433413</v>
+        <v>4.324020953261083</v>
       </c>
       <c r="D15">
-        <v>0.3845180370667407</v>
+        <v>0.3814216513164013</v>
       </c>
       <c r="E15">
-        <v>0.2411443888771103</v>
+        <v>0.239526562093225</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.000677547664101564</v>
       </c>
       <c r="H15">
-        <v>16.6004036796798</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>16.53821756390329</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,36 +978,39 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.309879518000457</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>2.285934469312963</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.569944281589585</v>
+        <v>4.491543844184378</v>
       </c>
       <c r="C16">
-        <v>4.007684814836239</v>
+        <v>3.960766033685502</v>
       </c>
       <c r="D16">
-        <v>0.3523720728872917</v>
+        <v>0.349632214833079</v>
       </c>
       <c r="E16">
-        <v>0.2220824827912153</v>
+        <v>0.2205611577911455</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.000691351474029658</v>
       </c>
       <c r="H16">
-        <v>15.31896226929598</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>15.26967847018926</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,36 +1019,39 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.110955042755819</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>2.0897833952844</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.299916154937989</v>
+        <v>4.226679717797538</v>
       </c>
       <c r="C17">
-        <v>3.790939153138595</v>
+        <v>3.747430314715359</v>
       </c>
       <c r="D17">
-        <v>0.3334807450842163</v>
+        <v>0.3309392010135213</v>
       </c>
       <c r="E17">
-        <v>0.2108295372776965</v>
+        <v>0.209358300456735</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0006996360141401194</v>
       </c>
       <c r="H17">
-        <v>14.56285630576414</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.52075816310753</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,36 +1060,39 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.994489181208678</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>1.974879798226866</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.149378960438241</v>
+        <v>4.07899313504015</v>
       </c>
       <c r="C18">
-        <v>3.669355515876589</v>
+        <v>3.627729881487141</v>
       </c>
       <c r="D18">
-        <v>0.322877051430936</v>
+        <v>0.320443485585713</v>
       </c>
       <c r="E18">
-        <v>0.2044970564273427</v>
+        <v>0.2030518930999179</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007043468154544154</v>
       </c>
       <c r="H18">
-        <v>14.13746107671849</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.09927772262947</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,36 +1101,39 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.929258628097884</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>1.910506587137434</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.099163781527523</v>
+        <v>4.029724901033148</v>
       </c>
       <c r="C19">
-        <v>3.6286766355949</v>
+        <v>3.587676682588153</v>
       </c>
       <c r="D19">
-        <v>0.3193282962186146</v>
+        <v>0.3169303557019418</v>
       </c>
       <c r="E19">
-        <v>0.2023751730255441</v>
+        <v>0.2009384158338179</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007059335967199107</v>
       </c>
       <c r="H19">
-        <v>13.99493281019858</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>13.9580413942877</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,36 +1142,39 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.907450591259973</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>1.888982529534431</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.328150568643366</v>
+        <v>4.254377367384109</v>
       </c>
       <c r="C20">
-        <v>3.813682674267739</v>
+        <v>3.76981929199826</v>
       </c>
       <c r="D20">
-        <v>0.3354637628191028</v>
+        <v>0.3329017654995567</v>
       </c>
       <c r="E20">
-        <v>0.2120124990005223</v>
+        <v>0.2105362253206593</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0006987599960633855</v>
       </c>
       <c r="H20">
-        <v>14.64233079490751</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.5994912896922</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,36 +1183,39 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.006699387817648</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1.986928160322435</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.160310874308038</v>
+        <v>5.070333540413628</v>
       </c>
       <c r="C21">
-        <v>4.47576029159444</v>
+        <v>4.421207825321119</v>
       </c>
       <c r="D21">
-        <v>0.3931140103226198</v>
+        <v>0.389917858403166</v>
       </c>
       <c r="E21">
-        <v>0.2462228812774896</v>
+        <v>0.24457670697862</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0006739145512326428</v>
       </c>
       <c r="H21">
-        <v>16.94196832864554</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>16.87617587108144</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,36 +1224,39 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.363231750910941</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>2.338517771107803</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.766409437939956</v>
+        <v>5.664009170191378</v>
       </c>
       <c r="C22">
-        <v>4.948433827907024</v>
+        <v>4.885712793343259</v>
       </c>
       <c r="D22">
-        <v>0.4341724606384361</v>
+        <v>0.4304706957416755</v>
       </c>
       <c r="E22">
-        <v>0.2703683933059722</v>
+        <v>0.2685706724349259</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0006568688087065992</v>
       </c>
       <c r="H22">
-        <v>18.5670454368128</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>18.48300645368596</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,36 +1265,39 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.618998092592889</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>2.590427532500769</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.43601679240254</v>
+        <v>5.340465794608917</v>
       </c>
       <c r="C23">
-        <v>4.691734938969148</v>
+        <v>4.633514249195628</v>
       </c>
       <c r="D23">
-        <v>0.4118854780678589</v>
+        <v>0.4084643798700398</v>
       </c>
       <c r="E23">
-        <v>0.2572850700818492</v>
+        <v>0.2555730268539662</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0006660601618597717</v>
       </c>
       <c r="H23">
-        <v>17.68625011873041</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>17.61233338873149</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,36 +1306,39 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.479973802220599</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>2.453536185971302</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.315371319773647</v>
+        <v>4.241841151063113</v>
       </c>
       <c r="C24">
-        <v>3.803391020732647</v>
+        <v>3.759688163923727</v>
       </c>
       <c r="D24">
-        <v>0.3345664493837717</v>
+        <v>0.3320137174492288</v>
       </c>
       <c r="E24">
-        <v>0.2114772604851467</v>
+        <v>0.2100032723083842</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0006991562027903298</v>
       </c>
       <c r="H24">
-        <v>14.60637176862156</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.56386809571845</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,36 +1347,39 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.001173840854634</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>1.981475908131415</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.285437846741218</v>
+        <v>3.231155336988024</v>
       </c>
       <c r="C25">
-        <v>2.96058866901916</v>
+        <v>2.929603702725444</v>
       </c>
       <c r="D25">
-        <v>0.2609780139175513</v>
+        <v>0.2591323596618764</v>
       </c>
       <c r="E25">
-        <v>0.1673033742621328</v>
+        <v>0.1659827552609556</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007328471108167962</v>
       </c>
       <c r="H25">
-        <v>11.63960534664292</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.62275838105717</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1388,10 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.550521577669812</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>1.536539038320285</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.57559484976008</v>
+        <v>2.59922559352708</v>
       </c>
       <c r="C2">
-        <v>2.375787712569775</v>
+        <v>0.6522900864056851</v>
       </c>
       <c r="D2">
-        <v>0.2103879126730703</v>
+        <v>0.2095876014193863</v>
       </c>
       <c r="E2">
-        <v>0.1362344129673936</v>
+        <v>1.461647006005776</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007569943947103808</v>
+        <v>0.0007597775684094198</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>9.635171673955028</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.7291743863749716</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>1.24181776543854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>9.004286282720983</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.166977627802169</v>
+        <v>2.203410687947326</v>
       </c>
       <c r="C3">
-        <v>2.023531232024197</v>
+        <v>0.548782965209881</v>
       </c>
       <c r="D3">
-        <v>0.1793409075972079</v>
+        <v>0.1791536532959839</v>
       </c>
       <c r="E3">
-        <v>0.117158260979302</v>
+        <v>1.235805482315385</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007732951087867623</v>
+        <v>0.0007740838311872736</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.359542236248444</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.6165122852798106</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>1.055370547702708</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>7.80644614167295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.928994820913459</v>
+        <v>1.970552766903637</v>
       </c>
       <c r="C4">
-        <v>1.815559694606691</v>
+        <v>0.4882471860906321</v>
       </c>
       <c r="D4">
-        <v>0.160996996953088</v>
+        <v>0.1610884749662205</v>
       </c>
       <c r="E4">
-        <v>0.1058392464058002</v>
+        <v>1.103163607981259</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.00078335624460595</v>
+        <v>0.0007829176920922345</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>7.601840118665734</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.5503324917494723</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.945706849685422</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>7.095606644066635</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.834694237812528</v>
+        <v>1.877779431349609</v>
       </c>
       <c r="C5">
-        <v>1.732527460755477</v>
+        <v>0.4641977157372423</v>
       </c>
       <c r="D5">
-        <v>0.1536706250049775</v>
+        <v>0.1538562165424935</v>
       </c>
       <c r="E5">
-        <v>0.1013083366652836</v>
+        <v>1.05033911593523</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007874796958136102</v>
+        <v>0.0007865387583785186</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>7.298306074982349</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.5239848308415418</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.9020173127316582</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>6.811018504172353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.819182745940765</v>
+        <v>1.862490885573806</v>
       </c>
       <c r="C6">
-        <v>1.71883401470194</v>
+        <v>0.4602380872008496</v>
       </c>
       <c r="D6">
-        <v>0.1524622453111277</v>
+        <v>0.1526624169922002</v>
       </c>
       <c r="E6">
-        <v>0.1005604594095892</v>
+        <v>1.041634365707239</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007881660779106737</v>
+        <v>0.0007871415421375884</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>7.248189518766765</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.5196438821521241</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.8948175206408919</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>6.764040704028901</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.927712881339005</v>
+        <v>1.969293547027434</v>
       </c>
       <c r="C7">
-        <v>1.814433386005874</v>
+        <v>0.4879205061680807</v>
       </c>
       <c r="D7">
-        <v>0.1608976263677562</v>
+        <v>0.1609904465239254</v>
       </c>
       <c r="E7">
-        <v>0.1057778312142261</v>
+        <v>1.102446568946519</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007834117473893018</v>
+        <v>0.0007829664307195281</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>7.597726785578402</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.5499748018093626</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.9451138455166941</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>7.091749344714771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.431650108976726</v>
+        <v>2.46034774371293</v>
       </c>
       <c r="C8">
-        <v>2.252358297553656</v>
+        <v>0.6158824045205336</v>
       </c>
       <c r="D8">
-        <v>0.1995126942133822</v>
+        <v>0.1989474785024044</v>
       </c>
       <c r="E8">
-        <v>0.1295638514664965</v>
+        <v>1.382336326258482</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007626107460185874</v>
+        <v>0.0007647057342127828</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>9.18925600537105</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.6896199979588999</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>1.176391969633535</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>8.585429844190486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.554627324970625</v>
+        <v>3.528844970194427</v>
       </c>
       <c r="C9">
-        <v>3.198231796196694</v>
+        <v>0.8987059828361055</v>
       </c>
       <c r="D9">
-        <v>0.282742840328055</v>
+        <v>0.2798031176265852</v>
       </c>
       <c r="E9">
-        <v>0.1803040155101456</v>
+        <v>1.995495582519638</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007216571401515064</v>
+        <v>0.0007288043586281512</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>12.57941767160125</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.9946925699520648</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.680129249218041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>11.77205118333737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.522450034926635</v>
+        <v>4.42404538793437</v>
       </c>
       <c r="C10">
-        <v>3.985549676544281</v>
+        <v>1.140794168702627</v>
       </c>
       <c r="D10">
-        <v>0.3518027203972025</v>
+        <v>0.3458312934105692</v>
       </c>
       <c r="E10">
-        <v>0.2218595400314811</v>
+        <v>2.516418280985334</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0006903978962048601</v>
+        <v>0.0007014763083369846</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>15.35649419888313</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1.251701205226581</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>2.103146266194585</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>14.38342517137943</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.014297668761515</v>
+        <v>4.870440766355898</v>
       </c>
       <c r="C11">
-        <v>4.37696456013191</v>
+        <v>1.263388039392481</v>
       </c>
       <c r="D11">
-        <v>0.3860505296234606</v>
+        <v>0.3781864622570907</v>
       </c>
       <c r="E11">
-        <v>0.2422789510305989</v>
+        <v>2.779447056211609</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.000675565480493661</v>
+        <v>0.0006885416415398519</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.72239930669963</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1.380374690735579</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>2.314574426408569</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>15.66707829663926</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.210554956647343</v>
+        <v>5.046993327408302</v>
       </c>
       <c r="C12">
-        <v>4.531613464625821</v>
+        <v>1.312232279490757</v>
       </c>
       <c r="D12">
-        <v>0.3995649565002992</v>
+        <v>0.3908785002362123</v>
       </c>
       <c r="E12">
-        <v>0.2503012865619354</v>
+        <v>2.884170029103714</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006698162470287893</v>
+        <v>0.0006835347893641077</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>17.25936330746924</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1.431363965561403</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>2.398305384367589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>16.17144895584528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.167789737405144</v>
+        <v>5.008597556301197</v>
       </c>
       <c r="C13">
-        <v>4.497987748977721</v>
+        <v>1.301592397429829</v>
       </c>
       <c r="D13">
-        <v>0.3966273225056511</v>
+        <v>0.3881233585685351</v>
       </c>
       <c r="E13">
-        <v>0.2485591886641458</v>
+        <v>2.861360180414152</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006710612416497788</v>
+        <v>0.0006846186764894975</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>17.14274105275507</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.420270283862678</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>2.380090307795044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>16.06192034736125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.03022477570272</v>
+        <v>4.884801922426959</v>
       </c>
       <c r="C14">
-        <v>4.389547007530723</v>
+        <v>1.26735347908118</v>
       </c>
       <c r="D14">
-        <v>0.3871504498964811</v>
+        <v>0.3792210795237736</v>
       </c>
       <c r="E14">
-        <v>0.2429326312630025</v>
+        <v>2.787950146729074</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006750954611169924</v>
+        <v>0.0006881321637933204</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.76614500102801</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1.384520168649814</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>2.321382820135241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>15.70817492969286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.947359646830705</v>
+        <v>4.810019852635833</v>
       </c>
       <c r="C15">
-        <v>4.324020953261083</v>
+        <v>1.246719224135944</v>
       </c>
       <c r="D15">
-        <v>0.3814216513164013</v>
+        <v>0.3738292707895425</v>
       </c>
       <c r="E15">
-        <v>0.239526562093225</v>
+        <v>2.743701515491608</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.000677547664101564</v>
+        <v>0.0006902687928874847</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.53821756390329</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1.362937692174583</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>2.285934469312963</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>15.49403847074103</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.491543844184378</v>
+        <v>4.395805990823476</v>
       </c>
       <c r="C16">
-        <v>3.960766033685502</v>
+        <v>1.133081658464931</v>
       </c>
       <c r="D16">
-        <v>0.349632214833079</v>
+        <v>0.343771739153226</v>
       </c>
       <c r="E16">
-        <v>0.2205611577911455</v>
+        <v>2.499858377321061</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.000691351474029658</v>
+        <v>0.0007023086771310779</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>15.26967847018926</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1.243572964937471</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2.0897833952844</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>14.30181199235017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.226679717797538</v>
+        <v>4.152867573684944</v>
       </c>
       <c r="C17">
-        <v>3.747430314715359</v>
+        <v>1.066939491742517</v>
       </c>
       <c r="D17">
-        <v>0.3309392010135213</v>
+        <v>0.3259911675268512</v>
       </c>
       <c r="E17">
-        <v>0.209358300456735</v>
+        <v>2.357761334448412</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0006996360141401194</v>
+        <v>0.0007095438741428792</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.52075816310753</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>1.173704065242987</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.974879798226866</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>13.59768129397256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.07899313504015</v>
+        <v>4.016678844890009</v>
       </c>
       <c r="C18">
-        <v>3.627729881487141</v>
+        <v>1.030021586239826</v>
       </c>
       <c r="D18">
-        <v>0.320443485585713</v>
+        <v>0.3159744507508719</v>
       </c>
       <c r="E18">
-        <v>0.2030518930999179</v>
+        <v>2.278377636505283</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.0007043468154544154</v>
+        <v>0.000713660798316537</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.09927772262947</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>1.134580437660489</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.910506587137434</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>13.20135198254022</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.029724901033148</v>
+        <v>3.971129366574473</v>
       </c>
       <c r="C19">
-        <v>3.587676682588153</v>
+        <v>1.01769956144409</v>
       </c>
       <c r="D19">
-        <v>0.3169303557019418</v>
+        <v>0.3126163864639437</v>
       </c>
       <c r="E19">
-        <v>0.2009384158338179</v>
+        <v>2.251869162325065</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007059335967199107</v>
+        <v>0.0007150479712363134</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>13.9580413942877</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>1.121502211794933</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.888982529534431</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>13.06853730725908</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.254377367384109</v>
+        <v>4.178350599710711</v>
       </c>
       <c r="C20">
-        <v>3.76981929199826</v>
+        <v>1.073860156385649</v>
       </c>
       <c r="D20">
-        <v>0.3329017654995567</v>
+        <v>0.3278615289001863</v>
       </c>
       <c r="E20">
-        <v>0.2105362253206593</v>
+        <v>2.372636664166876</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0006987599960633855</v>
+        <v>0.0007087785106596013</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.5994912896922</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>1.181028207308515</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.986928160322435</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>13.67171236300038</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.070333540413628</v>
+        <v>4.920941206992438</v>
       </c>
       <c r="C21">
-        <v>4.421207825321119</v>
+        <v>1.277338331156045</v>
       </c>
       <c r="D21">
-        <v>0.389917858403166</v>
+        <v>0.381822914607838</v>
       </c>
       <c r="E21">
-        <v>0.24457670697862</v>
+        <v>2.809359690693526</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006739145512326428</v>
+        <v>0.0006871034803096136</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.87617587108144</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>1.394953739112253</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2.338517771107803</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>15.81153803655758</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.664009170191378</v>
+        <v>5.451534942017759</v>
       </c>
       <c r="C22">
-        <v>4.885712793343259</v>
+        <v>1.424933605686903</v>
       </c>
       <c r="D22">
-        <v>0.4304706957416755</v>
+        <v>0.4197354157091837</v>
       </c>
       <c r="E22">
-        <v>0.2685706724349259</v>
+        <v>3.125748593324772</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006568688087065992</v>
+        <v>0.0006722748907607962</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>18.48300645368596</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.548411920427583</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>2.590427532500769</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>17.32008778256818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.340465794608917</v>
+        <v>5.163372786255991</v>
       </c>
       <c r="C23">
-        <v>4.633514249195628</v>
+        <v>1.344542043795116</v>
       </c>
       <c r="D23">
-        <v>0.4084643798700398</v>
+        <v>0.3992122607194801</v>
       </c>
       <c r="E23">
-        <v>0.2555730268539662</v>
+        <v>2.953430496173013</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006660601618597717</v>
+        <v>0.0006802659515710914</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>17.61233338873149</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>1.46500582207436</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2.453536185971302</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>16.50289533948404</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.241841151063113</v>
+        <v>4.166819015920737</v>
       </c>
       <c r="C24">
-        <v>3.759688163923727</v>
+        <v>1.070727916030648</v>
       </c>
       <c r="D24">
-        <v>0.3320137174492288</v>
+        <v>0.3270153056689935</v>
       </c>
       <c r="E24">
-        <v>0.2100032723083842</v>
+        <v>2.36590442801473</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0006991562027903298</v>
+        <v>0.0007091246619819734</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.56386809571845</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1.177713747817265</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.981475908131415</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>13.63821680393951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.231155336988024</v>
+        <v>3.22448362385137</v>
       </c>
       <c r="C25">
-        <v>2.929603702725444</v>
+        <v>0.8174916339241349</v>
       </c>
       <c r="D25">
-        <v>0.2591323596618764</v>
+        <v>0.2570029226139212</v>
       </c>
       <c r="E25">
-        <v>0.1659827552609556</v>
+        <v>1.820047566920934</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007328471108167962</v>
+        <v>0.0007386049365691556</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>11.62275838105717</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.9076126250812138</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.536539038320285</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>10.87245714583116</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.59922559352708</v>
+        <v>2.497959685697197</v>
       </c>
       <c r="C2">
-        <v>0.6522900864056851</v>
+        <v>0.6796323458121094</v>
       </c>
       <c r="D2">
-        <v>0.2095876014193863</v>
+        <v>0.2048899721315109</v>
       </c>
       <c r="E2">
-        <v>1.461647006005776</v>
+        <v>0.1926572096346106</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.0007597775684094198</v>
+        <v>0.2683861099855349</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.2009113075415812</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.1072644942261931</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7291743863749716</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.98972741875032</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>9.004286282720983</v>
+        <v>0.9410293281397344</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.203410687947326</v>
+        <v>2.181489006322522</v>
       </c>
       <c r="C3">
-        <v>0.548782965209881</v>
+        <v>0.5991009437086632</v>
       </c>
       <c r="D3">
-        <v>0.1791536532959839</v>
+        <v>0.1776282204269535</v>
       </c>
       <c r="E3">
-        <v>1.235805482315385</v>
+        <v>0.1687166872651389</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.0007740838311872736</v>
+        <v>0.2437470857637365</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.196227572230562</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.1136939016261032</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6165122852798106</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.8579512257328901</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>7.80644614167295</v>
+        <v>0.8785716884117818</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.970552766903637</v>
+        <v>1.987203010118407</v>
       </c>
       <c r="C4">
-        <v>0.4882471860906321</v>
+        <v>0.5496498348800856</v>
       </c>
       <c r="D4">
-        <v>0.1610884749662205</v>
+        <v>0.1610486548438814</v>
       </c>
       <c r="E4">
-        <v>1.103163607981259</v>
+        <v>0.1545707815931934</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.0007829176920922345</v>
+        <v>0.2296450705652475</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.1939823749809548</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.1183757662837976</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5503324917494723</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.777490490912335</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>7.095606644066635</v>
+        <v>0.8437081917216034</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.877779431349609</v>
+        <v>1.908012079604788</v>
       </c>
       <c r="C5">
-        <v>0.4641977157372423</v>
+        <v>0.5294905160935173</v>
       </c>
       <c r="D5">
-        <v>0.1538562165424935</v>
+        <v>0.1543274473018812</v>
       </c>
       <c r="E5">
-        <v>1.05033911593523</v>
+        <v>0.148931967885563</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.0007865387583785186</v>
+        <v>0.2241374209446221</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.1932174478167354</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.1204584492968515</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5239848308415418</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.7447943205074452</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>6.811018504172353</v>
+        <v>0.8303191601884379</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.862490885573806</v>
+        <v>1.894860716280505</v>
       </c>
       <c r="C6">
-        <v>0.4602380872008496</v>
+        <v>0.526142438487625</v>
       </c>
       <c r="D6">
-        <v>0.1526624169922002</v>
+        <v>0.1532133762100472</v>
       </c>
       <c r="E6">
-        <v>1.041634365707239</v>
+        <v>0.1480028647734564</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.0007871415421375884</v>
+        <v>0.2232367785766414</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.1930992504761306</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.1208145558420206</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.5196438821521241</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.7393701279248717</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>6.764040704028901</v>
+        <v>0.8281436857538154</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.969293547027434</v>
+        <v>1.986135117284221</v>
       </c>
       <c r="C7">
-        <v>0.4879205061680807</v>
+        <v>0.5493779981814271</v>
       </c>
       <c r="D7">
-        <v>0.1609904465239254</v>
+        <v>0.1609578745188287</v>
       </c>
       <c r="E7">
-        <v>1.102446568946519</v>
+        <v>0.1544942425803271</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0007829664307195281</v>
+        <v>0.2295698491003435</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.193971462517851</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.1184031590029484</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5499748018093626</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.777049192289418</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>7.091749344714771</v>
+        <v>0.8435243849171457</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.46034774371293</v>
+        <v>2.388819071639944</v>
       </c>
       <c r="C8">
-        <v>0.6158824045205336</v>
+        <v>0.6518619926266069</v>
       </c>
       <c r="D8">
-        <v>0.1989474785024044</v>
+        <v>0.195453998314278</v>
       </c>
       <c r="E8">
-        <v>1.382336326258482</v>
+        <v>0.1842792239324282</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.0007647057342127828</v>
+        <v>0.2596657318731204</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.1991601639412863</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.1093229005839529</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6896199979588999</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.9441843998787149</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.585429844190486</v>
+        <v>0.9187343280074884</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.528844970194427</v>
+        <v>3.179960518623659</v>
       </c>
       <c r="C9">
-        <v>0.8987059828361055</v>
+        <v>0.8531228994530977</v>
       </c>
       <c r="D9">
-        <v>0.2798031176265852</v>
+        <v>0.2646041476756409</v>
       </c>
       <c r="E9">
-        <v>1.995495582519638</v>
+        <v>0.2477358285562374</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.0007288043586281512</v>
+        <v>0.3277436515486585</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.2147501529326661</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.09781088678236571</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9946925699520648</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1.276543602221508</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.77205118333737</v>
+        <v>1.096681442222575</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.42404538793437</v>
+        <v>3.764060341714298</v>
       </c>
       <c r="C10">
-        <v>1.140794168702627</v>
+        <v>1.001672644420836</v>
       </c>
       <c r="D10">
-        <v>0.3458312934105692</v>
+        <v>0.3166845456538283</v>
       </c>
       <c r="E10">
-        <v>2.516418280985334</v>
+        <v>0.2984252456152205</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.0007014763083369846</v>
+        <v>0.3846466694449902</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.2301170046085304</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.09388389821633325</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.251701205226581</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.525111806194701</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>14.38342517137943</v>
+        <v>1.25016051360808</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.870440766355898</v>
+        <v>4.030878945796474</v>
       </c>
       <c r="C11">
-        <v>1.263388039392481</v>
+        <v>1.069525084382349</v>
       </c>
       <c r="D11">
-        <v>0.3781864622570907</v>
+        <v>0.3407405775006964</v>
       </c>
       <c r="E11">
-        <v>2.779447056211609</v>
+        <v>0.3226118621155649</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.0006885416415398519</v>
+        <v>0.4123570281297617</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.2381049362420384</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.09324781978127561</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.380374690735579</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.639529526446807</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.66707829663926</v>
+        <v>1.325925613340644</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.046993327408302</v>
+        <v>4.132118149522967</v>
       </c>
       <c r="C12">
-        <v>1.312232279490757</v>
+        <v>1.095269954156663</v>
       </c>
       <c r="D12">
-        <v>0.3908785002362123</v>
+        <v>0.3499100702672848</v>
       </c>
       <c r="E12">
-        <v>2.884170029103714</v>
+        <v>0.3319553127020498</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.0006835347893641077</v>
+        <v>0.4231424326142701</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.2412865999198743</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.0931875171733374</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.431363965561403</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.683084573775673</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.17144895584528</v>
+        <v>1.355562275894016</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.008597556301197</v>
+        <v>4.110304847495684</v>
       </c>
       <c r="C13">
-        <v>1.301592397429829</v>
+        <v>1.089722900425443</v>
       </c>
       <c r="D13">
-        <v>0.3881233585685351</v>
+        <v>0.3479324603086269</v>
       </c>
       <c r="E13">
-        <v>2.861360180414152</v>
+        <v>0.3299344490116454</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.0006846186764894975</v>
+        <v>0.4208061132669911</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.2405941729652312</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.09319221949580481</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.420270283862678</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.673693512970786</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.06192034736125</v>
+        <v>1.349135885988915</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.884801922426959</v>
+        <v>4.039203681914387</v>
       </c>
       <c r="C14">
-        <v>1.26735347908118</v>
+        <v>1.071642049886776</v>
       </c>
       <c r="D14">
-        <v>0.3792210795237736</v>
+        <v>0.3414937091680343</v>
       </c>
       <c r="E14">
-        <v>2.787950146729074</v>
+        <v>0.3233767201427753</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.0006881321637933204</v>
+        <v>0.4132383172304372</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.2383634704683431</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.09323914875015049</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.384520168649814</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.643108057679612</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.70817492969286</v>
+        <v>1.328344331460215</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.810019852635833</v>
+        <v>3.995679603638678</v>
       </c>
       <c r="C15">
-        <v>1.246719224135944</v>
+        <v>1.060573939291942</v>
       </c>
       <c r="D15">
-        <v>0.3738292707895425</v>
+        <v>0.337557836887143</v>
       </c>
       <c r="E15">
-        <v>2.743701515491608</v>
+        <v>0.3193846488713135</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.0006902687928874847</v>
+        <v>0.4086417848291148</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.2370179372620669</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.09329187951860263</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.362937692174583</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.624404291232892</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.49403847074103</v>
+        <v>1.315734934926013</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.395805990823476</v>
+        <v>3.746648881405008</v>
       </c>
       <c r="C16">
-        <v>1.133081658464931</v>
+        <v>0.9972447973032672</v>
       </c>
       <c r="D16">
-        <v>0.343771739153226</v>
+        <v>0.3151203960428006</v>
       </c>
       <c r="E16">
-        <v>2.499858377321061</v>
+        <v>0.2968691481749417</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.0007023086771310779</v>
+        <v>0.3828749363409969</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.229616164744769</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.09394988318165431</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.243572964937471</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.517664234204744</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.30181199235017</v>
+        <v>1.245336355985842</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.152867573684944</v>
+        <v>3.594188859438361</v>
       </c>
       <c r="C17">
-        <v>1.066939491742517</v>
+        <v>0.9584726470574481</v>
       </c>
       <c r="D17">
-        <v>0.3259911675268512</v>
+        <v>0.301454306479755</v>
       </c>
       <c r="E17">
-        <v>2.357761334448412</v>
+        <v>0.2833607020071014</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.0007095438741428792</v>
+        <v>0.3675555800815999</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.2253400725488461</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.0946585851667443</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.173704065242987</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.452550140082536</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>13.59768129397256</v>
+        <v>1.203734625104772</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.016678844890009</v>
+        <v>3.506599554327238</v>
       </c>
       <c r="C18">
-        <v>1.030021586239826</v>
+        <v>0.9361972412695536</v>
       </c>
       <c r="D18">
-        <v>0.3159744507508719</v>
+        <v>0.2936277438567458</v>
       </c>
       <c r="E18">
-        <v>2.278377636505283</v>
+        <v>0.2756956939231756</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.000713660798316537</v>
+        <v>0.3589141461799557</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.2229736023159319</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.09517351159032827</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.134580437660489</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.415222387403276</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>13.20135198254022</v>
+        <v>1.180360280012337</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.971129366574473</v>
+        <v>3.476959580092853</v>
       </c>
       <c r="C19">
-        <v>1.01769956144409</v>
+        <v>0.9286592031295982</v>
       </c>
       <c r="D19">
-        <v>0.3126163864639437</v>
+        <v>0.2909833892278471</v>
       </c>
       <c r="E19">
-        <v>2.251869162325065</v>
+        <v>0.2731177882005511</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.0007150479712363134</v>
+        <v>0.3560166121311852</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.222187943251086</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.09536584315168639</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.121502211794933</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.402604175098332</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>13.06853730725908</v>
+        <v>1.172538603487453</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.178350599710711</v>
+        <v>3.610407678730439</v>
       </c>
       <c r="C20">
-        <v>1.073860156385649</v>
+        <v>0.9625973135543688</v>
       </c>
       <c r="D20">
-        <v>0.3278615289001863</v>
+        <v>0.3029055326045267</v>
       </c>
       <c r="E20">
-        <v>2.372636664166876</v>
+        <v>0.2847877087157045</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.0007087785106596013</v>
+        <v>0.3691685650210701</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.2257855487088563</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.09457193153026822</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.181028207308515</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.459468557562047</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>13.67171236300038</v>
+        <v>1.20810524148277</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.920941206992438</v>
+        <v>4.060082020536811</v>
       </c>
       <c r="C21">
-        <v>1.277338331156045</v>
+        <v>1.07695136842915</v>
       </c>
       <c r="D21">
-        <v>0.381822914607838</v>
+        <v>0.3433832347119079</v>
       </c>
       <c r="E21">
-        <v>2.809359690693526</v>
+        <v>0.3252976880785639</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.0006871034803096136</v>
+        <v>0.4154529864762253</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.2390143141335415</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.09322033723337952</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.394953739112253</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.652085281820291</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.81153803655758</v>
+        <v>1.334424877386681</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.451534942017759</v>
+        <v>4.35516243431141</v>
       </c>
       <c r="C22">
-        <v>1.424933605686903</v>
+        <v>1.151989207780844</v>
       </c>
       <c r="D22">
-        <v>0.4197354157091837</v>
+        <v>0.3701914145086675</v>
       </c>
       <c r="E22">
-        <v>3.125748593324772</v>
+        <v>0.3528606781758441</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.0006722748907607962</v>
+        <v>0.4474206380176042</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.2485810864409927</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.09339739246803447</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.548411920427583</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.779316023324071</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>17.32008778256818</v>
+        <v>1.422544144685247</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.163372786255991</v>
+        <v>4.197548736511237</v>
       </c>
       <c r="C23">
-        <v>1.344542043795116</v>
+        <v>1.111908713925516</v>
       </c>
       <c r="D23">
-        <v>0.3992122607194801</v>
+        <v>0.3558483573150539</v>
       </c>
       <c r="E23">
-        <v>2.953430496173013</v>
+        <v>0.3380423476334329</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.0006802659515710914</v>
+        <v>0.4301912427798129</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.2433861373491766</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.09320054164854952</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.46500582207436</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.711275337531305</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.50289533948404</v>
+        <v>1.374972275243834</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.166819015920737</v>
+        <v>3.6030749605182</v>
       </c>
       <c r="C24">
-        <v>1.070727916030648</v>
+        <v>0.9607325052345743</v>
       </c>
       <c r="D24">
-        <v>0.3270153056689935</v>
+        <v>0.3022493396051971</v>
       </c>
       <c r="E24">
-        <v>2.36590442801473</v>
+        <v>0.2841422454996234</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.0007091246619819734</v>
+        <v>0.3684388201024973</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.2255838636490353</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.094610773981195</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.177713747817265</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.45634040965821</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>13.63821680393951</v>
+        <v>1.206127601142981</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.22448362385137</v>
+        <v>2.96558612398826</v>
       </c>
       <c r="C25">
-        <v>0.8174916339241349</v>
+        <v>0.7985957374467034</v>
       </c>
       <c r="D25">
-        <v>0.2570029226139212</v>
+        <v>0.2457006505610622</v>
       </c>
       <c r="E25">
-        <v>1.820047566920934</v>
+        <v>0.2299314846712761</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.0007386049365691556</v>
+        <v>0.3082220417880279</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.2098924523727277</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.1001826644365451</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.9076126250812138</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1.18598346396368</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.87245714583116</v>
+        <v>1.044868471274754</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.497959685697197</v>
+        <v>0.8085470676222144</v>
       </c>
       <c r="C2">
-        <v>0.6796323458121094</v>
+        <v>0.227116090245687</v>
       </c>
       <c r="D2">
-        <v>0.2048899721315109</v>
+        <v>0.07954876415473677</v>
       </c>
       <c r="E2">
-        <v>0.1926572096346106</v>
+        <v>0.1182897270552559</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2683861099855349</v>
+        <v>0.272929480753163</v>
       </c>
       <c r="H2">
-        <v>0.2009113075415812</v>
+        <v>0.4342295495421453</v>
       </c>
       <c r="I2">
-        <v>0.1072644942261931</v>
+        <v>0.2926626056523407</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.98972741875032</v>
+        <v>0.3429548193720748</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9410293281397344</v>
+        <v>1.336222163863269</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.181489006322522</v>
+        <v>0.7064295125629201</v>
       </c>
       <c r="C3">
-        <v>0.5991009437086632</v>
+        <v>0.2007471095552091</v>
       </c>
       <c r="D3">
-        <v>0.1776282204269535</v>
+        <v>0.07202042290886368</v>
       </c>
       <c r="E3">
-        <v>0.1687166872651389</v>
+        <v>0.1137591761984211</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2437470857637365</v>
+        <v>0.2712430868040769</v>
       </c>
       <c r="H3">
-        <v>0.196227572230562</v>
+        <v>0.4378998157040428</v>
       </c>
       <c r="I3">
-        <v>0.1136939016261032</v>
+        <v>0.2991574628744722</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8579512257328901</v>
+        <v>0.3040475536218779</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8785716884117818</v>
+        <v>1.340030448790756</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.987203010118407</v>
+        <v>0.6435058399137574</v>
       </c>
       <c r="C4">
-        <v>0.5496498348800856</v>
+        <v>0.1844761812587308</v>
       </c>
       <c r="D4">
-        <v>0.1610486548438814</v>
+        <v>0.06743181252645059</v>
       </c>
       <c r="E4">
-        <v>0.1545707815931934</v>
+        <v>0.1111152195183891</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2296450705652475</v>
+        <v>0.2705504135493086</v>
       </c>
       <c r="H4">
-        <v>0.1939823749809548</v>
+        <v>0.440462156660999</v>
       </c>
       <c r="I4">
-        <v>0.1183757662837976</v>
+        <v>0.303452537484187</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.777490490912335</v>
+        <v>0.2801794378648097</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.8437081917216034</v>
+        <v>1.343731395736725</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.908012079604788</v>
+        <v>0.6178094685285771</v>
       </c>
       <c r="C5">
-        <v>0.5294905160935173</v>
+        <v>0.1778258610232513</v>
       </c>
       <c r="D5">
-        <v>0.1543274473018812</v>
+        <v>0.06557041967022315</v>
       </c>
       <c r="E5">
-        <v>0.148931967885563</v>
+        <v>0.1100721161552478</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2241374209446221</v>
+        <v>0.2703539184267498</v>
       </c>
       <c r="H5">
-        <v>0.1932174478167354</v>
+        <v>0.4415838751150645</v>
       </c>
       <c r="I5">
-        <v>0.1204584492968515</v>
+        <v>0.3052798266092225</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7447943205074452</v>
+        <v>0.2704584499331091</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.8303191601884379</v>
+        <v>1.34558109870683</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.894860716280505</v>
+        <v>0.6135393644906628</v>
       </c>
       <c r="C6">
-        <v>0.526142438487625</v>
+        <v>0.1767203972846687</v>
       </c>
       <c r="D6">
-        <v>0.1532133762100472</v>
+        <v>0.06526185033526133</v>
       </c>
       <c r="E6">
-        <v>0.1480028647734564</v>
+        <v>0.1099009735933372</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2232367785766414</v>
+        <v>0.2703264588284569</v>
       </c>
       <c r="H6">
-        <v>0.1930992504761306</v>
+        <v>0.4417748160635142</v>
       </c>
       <c r="I6">
-        <v>0.1208145558420206</v>
+        <v>0.3055878908844587</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7393701279248717</v>
+        <v>0.2688446219784311</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8281436857538154</v>
+        <v>1.345908835871157</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.986135117284221</v>
+        <v>0.6431595080103421</v>
       </c>
       <c r="C7">
-        <v>0.5493779981814271</v>
+        <v>0.1843865722890712</v>
       </c>
       <c r="D7">
-        <v>0.1609578745188287</v>
+        <v>0.06740667470403139</v>
       </c>
       <c r="E7">
-        <v>0.1544942425803271</v>
+        <v>0.1111010132892289</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2295698491003435</v>
+        <v>0.270547416806096</v>
       </c>
       <c r="H7">
-        <v>0.193971462517851</v>
+        <v>0.4404769707137675</v>
       </c>
       <c r="I7">
-        <v>0.1184031590029484</v>
+        <v>0.3034768694451646</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.777049192289418</v>
+        <v>0.2800483148901947</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8435243849171457</v>
+        <v>1.343754960086045</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.388819071639944</v>
+        <v>0.7733841786305788</v>
       </c>
       <c r="C8">
-        <v>0.6518619926266069</v>
+        <v>0.2180409556955567</v>
       </c>
       <c r="D8">
-        <v>0.195453998314278</v>
+        <v>0.0769459691205725</v>
       </c>
       <c r="E8">
-        <v>0.1842792239324282</v>
+        <v>0.1166987910995942</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2596657318731204</v>
+        <v>0.2722766146144338</v>
       </c>
       <c r="H8">
-        <v>0.1991601639412863</v>
+        <v>0.4354309077116767</v>
       </c>
       <c r="I8">
-        <v>0.1093229005839529</v>
+        <v>0.2948381294720033</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9441843998787149</v>
+        <v>0.3295352951346473</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9187343280074884</v>
+        <v>1.337251772405153</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.179960518623659</v>
+        <v>1.026925240974037</v>
       </c>
       <c r="C9">
-        <v>0.8531228994530977</v>
+        <v>0.2833858791875912</v>
       </c>
       <c r="D9">
-        <v>0.2646041476756409</v>
+        <v>0.09592193464975196</v>
       </c>
       <c r="E9">
-        <v>0.2477358285562374</v>
+        <v>0.1287849106231036</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3277436515486585</v>
+        <v>0.2784069322290748</v>
       </c>
       <c r="H9">
-        <v>0.2147501529326661</v>
+        <v>0.4279904673909272</v>
       </c>
       <c r="I9">
-        <v>0.09781088678236571</v>
+        <v>0.2803455989554173</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.276543602221508</v>
+        <v>0.426744749883639</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.096681442222575</v>
+        <v>1.335362906580457</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.764060341714298</v>
+        <v>1.212025950161603</v>
       </c>
       <c r="C10">
-        <v>1.001672644420836</v>
+        <v>0.3309832419225529</v>
       </c>
       <c r="D10">
-        <v>0.3166845456538283</v>
+        <v>0.1100307788274506</v>
       </c>
       <c r="E10">
-        <v>0.2984252456152205</v>
+        <v>0.1383628200518956</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3846466694449902</v>
+        <v>0.2846088489365428</v>
       </c>
       <c r="H10">
-        <v>0.2301170046085304</v>
+        <v>0.42402751406226</v>
       </c>
       <c r="I10">
-        <v>0.09388389821633325</v>
+        <v>0.2712044135711587</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.525111806194701</v>
+        <v>0.4982705968658649</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.25016051360808</v>
+        <v>1.340672444135777</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.030878945796474</v>
+        <v>1.295966188748196</v>
       </c>
       <c r="C11">
-        <v>1.069525084382349</v>
+        <v>0.3525444107553426</v>
       </c>
       <c r="D11">
-        <v>0.3407405775006964</v>
+        <v>0.1164862764087786</v>
       </c>
       <c r="E11">
-        <v>0.3226118621155649</v>
+        <v>0.1428765197177029</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4123570281297617</v>
+        <v>0.2878050018854736</v>
       </c>
       <c r="H11">
-        <v>0.2381049362420384</v>
+        <v>0.422552667882897</v>
       </c>
       <c r="I11">
-        <v>0.09324781978127561</v>
+        <v>0.2673759765222279</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.639529526446807</v>
+        <v>0.5308341913336392</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.325925613340644</v>
+        <v>1.34455823886978</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.132118149522967</v>
+        <v>1.327713004071313</v>
       </c>
       <c r="C12">
-        <v>1.095269954156663</v>
+        <v>0.3606956353305009</v>
       </c>
       <c r="D12">
-        <v>0.3499100702672848</v>
+        <v>0.1189361946117344</v>
       </c>
       <c r="E12">
-        <v>0.3319553127020498</v>
+        <v>0.1446086396982622</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4231424326142701</v>
+        <v>0.2890696729692195</v>
       </c>
       <c r="H12">
-        <v>0.2412865999198743</v>
+        <v>0.4220414571107369</v>
       </c>
       <c r="I12">
-        <v>0.0931875171733374</v>
+        <v>0.265973945661937</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.683084573775673</v>
+        <v>0.5431689035878833</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.355562275894016</v>
+        <v>1.346242384242913</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.110304847495684</v>
+        <v>1.320877544608493</v>
       </c>
       <c r="C13">
-        <v>1.089722900425443</v>
+        <v>0.3589407313249922</v>
       </c>
       <c r="D13">
-        <v>0.3479324603086269</v>
+        <v>0.1184083225169559</v>
       </c>
       <c r="E13">
-        <v>0.3299344490116454</v>
+        <v>0.1442345734627253</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4208061132669911</v>
+        <v>0.2887948786977574</v>
       </c>
       <c r="H13">
-        <v>0.2405941729652312</v>
+        <v>0.4221494506247723</v>
       </c>
       <c r="I13">
-        <v>0.09319221949580481</v>
+        <v>0.2662737716379411</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.673693512970786</v>
+        <v>0.5405122458207074</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.349135885988915</v>
+        <v>1.345870194916188</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.039203681914387</v>
+        <v>1.298578820362138</v>
       </c>
       <c r="C14">
-        <v>1.071642049886776</v>
+        <v>0.3532152903042629</v>
       </c>
       <c r="D14">
-        <v>0.3414937091680343</v>
+        <v>0.1166877252295535</v>
       </c>
       <c r="E14">
-        <v>0.3233767201427753</v>
+        <v>0.1430185617035278</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4132383172304372</v>
+        <v>0.2879079551557311</v>
       </c>
       <c r="H14">
-        <v>0.2383634704683431</v>
+        <v>0.4225096619487232</v>
       </c>
       <c r="I14">
-        <v>0.09323914875015049</v>
+        <v>0.2672596727659986</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.643108057679612</v>
+        <v>0.5318489046391903</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.328344331460215</v>
+        <v>1.344692525091403</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.995679603638678</v>
+        <v>1.284915009243889</v>
       </c>
       <c r="C15">
-        <v>1.060573939291942</v>
+        <v>0.3497065189711464</v>
       </c>
       <c r="D15">
-        <v>0.337557836887143</v>
+        <v>0.1156345077846623</v>
       </c>
       <c r="E15">
-        <v>0.3193846488713135</v>
+        <v>0.1422767094931459</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4086417848291148</v>
+        <v>0.2873717811719274</v>
       </c>
       <c r="H15">
-        <v>0.2370179372620669</v>
+        <v>0.4227364629870323</v>
       </c>
       <c r="I15">
-        <v>0.09329187951860263</v>
+        <v>0.2678697876322502</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.624404291232892</v>
+        <v>0.5265428199631259</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.315734934926013</v>
+        <v>1.343998901829025</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.746648881405008</v>
+        <v>1.206534819155138</v>
       </c>
       <c r="C16">
-        <v>0.9972447973032672</v>
+        <v>0.3295722994117511</v>
       </c>
       <c r="D16">
-        <v>0.3151203960428006</v>
+        <v>0.1096096473688419</v>
       </c>
       <c r="E16">
-        <v>0.2968691481749417</v>
+        <v>0.1380710216715926</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3828749363409969</v>
+        <v>0.2844075548045168</v>
       </c>
       <c r="H16">
-        <v>0.229616164744769</v>
+        <v>0.4241305081858258</v>
       </c>
       <c r="I16">
-        <v>0.09394988318165431</v>
+        <v>0.2714612732342871</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.517664234204744</v>
+        <v>0.4961430004091625</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.245336355985842</v>
+        <v>1.34044819287621</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.594188859438361</v>
+        <v>1.158382526592504</v>
       </c>
       <c r="C17">
-        <v>0.9584726470574481</v>
+        <v>0.3171969717288334</v>
       </c>
       <c r="D17">
-        <v>0.301454306479755</v>
+        <v>0.1059231446614888</v>
       </c>
       <c r="E17">
-        <v>0.2833607020071014</v>
+        <v>0.1355313433678447</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3675555800815999</v>
+        <v>0.2826854329789228</v>
       </c>
       <c r="H17">
-        <v>0.2253400725488461</v>
+        <v>0.4250697885428565</v>
       </c>
       <c r="I17">
-        <v>0.0946585851667443</v>
+        <v>0.2737492303698339</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.452550140082536</v>
+        <v>0.4775002646230746</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.203734625104772</v>
+        <v>1.338647443802699</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.506599554327238</v>
+        <v>1.130661947697831</v>
       </c>
       <c r="C18">
-        <v>0.9361972412695536</v>
+        <v>0.3100704597065089</v>
       </c>
       <c r="D18">
-        <v>0.2936277438567458</v>
+        <v>0.1038062782295839</v>
       </c>
       <c r="E18">
-        <v>0.2756956939231756</v>
+        <v>0.1340853121181951</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3589141461799557</v>
+        <v>0.2817301717169727</v>
       </c>
       <c r="H18">
-        <v>0.2229736023159319</v>
+        <v>0.4256408956850493</v>
       </c>
       <c r="I18">
-        <v>0.09517351159032827</v>
+        <v>0.2750962415793907</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.415222387403276</v>
+        <v>0.4667799253873426</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.180360280012337</v>
+        <v>1.337750033986254</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.476959580092853</v>
+        <v>1.121272054117412</v>
       </c>
       <c r="C19">
-        <v>0.9286592031295982</v>
+        <v>0.3076560894550369</v>
       </c>
       <c r="D19">
-        <v>0.2909833892278471</v>
+        <v>0.1030901470116845</v>
       </c>
       <c r="E19">
-        <v>0.2731177882005511</v>
+        <v>0.1335982290149218</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3560166121311852</v>
+        <v>0.2814127784180442</v>
       </c>
       <c r="H19">
-        <v>0.222187943251086</v>
+        <v>0.4258395587623198</v>
       </c>
       <c r="I19">
-        <v>0.09536584315168639</v>
+        <v>0.2755576391044698</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.402604175098332</v>
+        <v>0.4631506321093184</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.172538603487453</v>
+        <v>1.337469907824357</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.610407678730439</v>
+        <v>1.163510984368486</v>
       </c>
       <c r="C20">
-        <v>0.9625973135543688</v>
+        <v>0.3185152345293432</v>
       </c>
       <c r="D20">
-        <v>0.3029055326045267</v>
+        <v>0.1063152156755791</v>
       </c>
       <c r="E20">
-        <v>0.2847877087157045</v>
+        <v>0.1358001699760507</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3691685650210701</v>
+        <v>0.2828651034742506</v>
       </c>
       <c r="H20">
-        <v>0.2257855487088563</v>
+        <v>0.4249666059459258</v>
       </c>
       <c r="I20">
-        <v>0.09457193153026822</v>
+        <v>0.2735024590635753</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.459468557562047</v>
+        <v>0.4794845613653251</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.20810524148277</v>
+        <v>1.338824810705063</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.060082020536811</v>
+        <v>1.305129582629093</v>
       </c>
       <c r="C21">
-        <v>1.07695136842915</v>
+        <v>0.354897361436997</v>
       </c>
       <c r="D21">
-        <v>0.3433832347119079</v>
+        <v>0.1171929608913445</v>
       </c>
       <c r="E21">
-        <v>0.3252976880785639</v>
+        <v>0.1433751100691723</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4154529864762253</v>
+        <v>0.2881669872683972</v>
       </c>
       <c r="H21">
-        <v>0.2390143141335415</v>
+        <v>0.4224025749359868</v>
       </c>
       <c r="I21">
-        <v>0.09322033723337952</v>
+        <v>0.2669687925726727</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.652085281820291</v>
+        <v>0.5343934419784233</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.334424877386681</v>
+        <v>1.345032653441194</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.35516243431141</v>
+        <v>1.397454322275962</v>
       </c>
       <c r="C22">
-        <v>1.151989207780844</v>
+        <v>0.3785961751134437</v>
       </c>
       <c r="D22">
-        <v>0.3701914145086675</v>
+        <v>0.1243334440717803</v>
       </c>
       <c r="E22">
-        <v>0.3528606781758441</v>
+        <v>0.1484592967919625</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4474206380176042</v>
+        <v>0.2919491190948946</v>
       </c>
       <c r="H22">
-        <v>0.2485810864409927</v>
+        <v>0.4210024837074542</v>
       </c>
       <c r="I22">
-        <v>0.09339739246803447</v>
+        <v>0.2629769097233918</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.779316023324071</v>
+        <v>0.5703003931944011</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.422544144685247</v>
+        <v>1.350330061985147</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.197548736511237</v>
+        <v>1.34820058729872</v>
       </c>
       <c r="C23">
-        <v>1.111908713925516</v>
+        <v>0.3659550394675648</v>
       </c>
       <c r="D23">
-        <v>0.3558483573150539</v>
+        <v>0.1205195761672826</v>
       </c>
       <c r="E23">
-        <v>0.3380423476334329</v>
+        <v>0.1457334364628196</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4301912427798129</v>
+        <v>0.2899013659061325</v>
       </c>
       <c r="H23">
-        <v>0.2433861373491766</v>
+        <v>0.4217244748038667</v>
       </c>
       <c r="I23">
-        <v>0.09320054164854952</v>
+        <v>0.2650819037868857</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.711275337531305</v>
+        <v>0.5511343278847249</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.374972275243834</v>
+        <v>1.347388849862739</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.6030749605182</v>
+        <v>1.16119252430741</v>
       </c>
       <c r="C24">
-        <v>0.9607325052345743</v>
+        <v>0.3179192845538523</v>
       </c>
       <c r="D24">
-        <v>0.3022493396051971</v>
+        <v>0.1061379524193171</v>
       </c>
       <c r="E24">
-        <v>0.2841422454996234</v>
+        <v>0.1356785896880481</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3684388201024973</v>
+        <v>0.2827837660480981</v>
       </c>
       <c r="H24">
-        <v>0.2255838636490353</v>
+        <v>0.4250131579236154</v>
       </c>
       <c r="I24">
-        <v>0.094610773981195</v>
+        <v>0.2736139258518548</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.45634040965821</v>
+        <v>0.4785874682209084</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.206127601142981</v>
+        <v>1.338744193777529</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.96558612398826</v>
+        <v>0.9585378408863789</v>
       </c>
       <c r="C25">
-        <v>0.7985957374467034</v>
+        <v>0.2657795846029103</v>
       </c>
       <c r="D25">
-        <v>0.2457006505610622</v>
+        <v>0.09075928195700556</v>
       </c>
       <c r="E25">
-        <v>0.2299314846712761</v>
+        <v>0.125394285464985</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3082220417880279</v>
+        <v>0.2764523517809891</v>
       </c>
       <c r="H25">
-        <v>0.2098924523727277</v>
+        <v>0.4297397701573118</v>
       </c>
       <c r="I25">
-        <v>0.1001826644365451</v>
+        <v>0.2840026764903012</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.18598346396368</v>
+        <v>0.4004287730640357</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.044868471274754</v>
+        <v>1.334703138439608</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8085470676222144</v>
+        <v>2.49795968569714</v>
       </c>
       <c r="C2">
-        <v>0.227116090245687</v>
+        <v>0.6796323458117968</v>
       </c>
       <c r="D2">
-        <v>0.07954876415473677</v>
+        <v>0.2048899721314967</v>
       </c>
       <c r="E2">
-        <v>0.1182897270552559</v>
+        <v>0.1926572096345964</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.272929480753163</v>
+        <v>0.2683861099855207</v>
       </c>
       <c r="H2">
-        <v>0.4342295495421453</v>
+        <v>0.2009113075415812</v>
       </c>
       <c r="I2">
-        <v>0.2926626056523407</v>
+        <v>0.1072644942261896</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3429548193720748</v>
+        <v>0.9897274187503413</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.336222163863269</v>
+        <v>0.9410293281396207</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7064295125629201</v>
+        <v>2.181489006322579</v>
       </c>
       <c r="C3">
-        <v>0.2007471095552091</v>
+        <v>0.5991009437086632</v>
       </c>
       <c r="D3">
-        <v>0.07202042290886368</v>
+        <v>0.1776282204270103</v>
       </c>
       <c r="E3">
-        <v>0.1137591761984211</v>
+        <v>0.1687166872651531</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2712430868040769</v>
+        <v>0.2437470857636654</v>
       </c>
       <c r="H3">
-        <v>0.4378998157040428</v>
+        <v>0.196227572230562</v>
       </c>
       <c r="I3">
-        <v>0.2991574628744722</v>
+        <v>0.1136939016260996</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3040475536218779</v>
+        <v>0.8579512257328972</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.340030448790756</v>
+        <v>0.8785716884117107</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6435058399137574</v>
+        <v>1.987203010118492</v>
       </c>
       <c r="C4">
-        <v>0.1844761812587308</v>
+        <v>0.5496498348804266</v>
       </c>
       <c r="D4">
-        <v>0.06743181252645059</v>
+        <v>0.161048654844052</v>
       </c>
       <c r="E4">
-        <v>0.1111152195183891</v>
+        <v>0.1545707815931863</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2705504135493086</v>
+        <v>0.2296450705651836</v>
       </c>
       <c r="H4">
-        <v>0.440462156660999</v>
+        <v>0.1939823749809477</v>
       </c>
       <c r="I4">
-        <v>0.303452537484187</v>
+        <v>0.1183757662837976</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.2801794378648097</v>
+        <v>0.7774904909123563</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.343731395736725</v>
+        <v>0.843708191721575</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6178094685285771</v>
+        <v>1.908012079604617</v>
       </c>
       <c r="C5">
-        <v>0.1778258610232513</v>
+        <v>0.5294905160935173</v>
       </c>
       <c r="D5">
-        <v>0.06557041967022315</v>
+        <v>0.154327447301867</v>
       </c>
       <c r="E5">
-        <v>0.1100721161552478</v>
+        <v>0.1489319678855665</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2703539184267498</v>
+        <v>0.2241374209446221</v>
       </c>
       <c r="H5">
-        <v>0.4415838751150645</v>
+        <v>0.1932174478166218</v>
       </c>
       <c r="I5">
-        <v>0.3052798266092225</v>
+        <v>0.1204584492968497</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.2704584499331091</v>
+        <v>0.7447943205074452</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.34558109870683</v>
+        <v>0.830319160188381</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6135393644906628</v>
+        <v>1.894860716280391</v>
       </c>
       <c r="C6">
-        <v>0.1767203972846687</v>
+        <v>0.5261424384874545</v>
       </c>
       <c r="D6">
-        <v>0.06526185033526133</v>
+        <v>0.1532133762098766</v>
       </c>
       <c r="E6">
-        <v>0.1099009735933372</v>
+        <v>0.1480028647734564</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2703264588284569</v>
+        <v>0.2232367785766414</v>
       </c>
       <c r="H6">
-        <v>0.4417748160635142</v>
+        <v>0.1930992504761306</v>
       </c>
       <c r="I6">
-        <v>0.3055878908844587</v>
+        <v>0.1208145558420206</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.2688446219784311</v>
+        <v>0.7393701279248361</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.345908835871157</v>
+        <v>0.8281436857538154</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6431595080103421</v>
+        <v>1.986135117284192</v>
       </c>
       <c r="C7">
-        <v>0.1843865722890712</v>
+        <v>0.5493779981815976</v>
       </c>
       <c r="D7">
-        <v>0.06740667470403139</v>
+        <v>0.1609578745189282</v>
       </c>
       <c r="E7">
-        <v>0.1111010132892289</v>
+        <v>0.1544942425803342</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.270547416806096</v>
+        <v>0.2295698491003719</v>
       </c>
       <c r="H7">
-        <v>0.4404769707137675</v>
+        <v>0.193971462517851</v>
       </c>
       <c r="I7">
-        <v>0.3034768694451646</v>
+        <v>0.1184031590029644</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.2800483148901947</v>
+        <v>0.7770491922894038</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.343754960086045</v>
+        <v>0.8435243849171314</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7733841786305788</v>
+        <v>2.38881907164</v>
       </c>
       <c r="C8">
-        <v>0.2180409556955567</v>
+        <v>0.6518619926265785</v>
       </c>
       <c r="D8">
-        <v>0.0769459691205725</v>
+        <v>0.1954539983144059</v>
       </c>
       <c r="E8">
-        <v>0.1166987910995942</v>
+        <v>0.1842792239324353</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2722766146144338</v>
+        <v>0.2596657318731133</v>
       </c>
       <c r="H8">
-        <v>0.4354309077116767</v>
+        <v>0.1991601639411726</v>
       </c>
       <c r="I8">
-        <v>0.2948381294720033</v>
+        <v>0.1093229005839511</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.3295352951346473</v>
+        <v>0.9441843998787149</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.337251772405153</v>
+        <v>0.9187343280074742</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.026925240974037</v>
+        <v>3.179960518623659</v>
       </c>
       <c r="C9">
-        <v>0.2833858791875912</v>
+        <v>0.8531228994531261</v>
       </c>
       <c r="D9">
-        <v>0.09592193464975196</v>
+        <v>0.2646041476755272</v>
       </c>
       <c r="E9">
-        <v>0.1287849106231036</v>
+        <v>0.2477358285562659</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.2784069322290748</v>
+        <v>0.3277436515485874</v>
       </c>
       <c r="H9">
-        <v>0.4279904673909272</v>
+        <v>0.2147501529326519</v>
       </c>
       <c r="I9">
-        <v>0.2803455989554173</v>
+        <v>0.09781088678234795</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.426744749883639</v>
+        <v>1.276543602221494</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.335362906580457</v>
+        <v>1.096681442222575</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.212025950161603</v>
+        <v>3.764060341714469</v>
       </c>
       <c r="C10">
-        <v>0.3309832419225529</v>
+        <v>1.001672644421063</v>
       </c>
       <c r="D10">
-        <v>0.1100307788274506</v>
+        <v>0.3166845456538852</v>
       </c>
       <c r="E10">
-        <v>0.1383628200518956</v>
+        <v>0.2984252456152419</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.2846088489365428</v>
+        <v>0.3846466694449475</v>
       </c>
       <c r="H10">
-        <v>0.42402751406226</v>
+        <v>0.2301170046085304</v>
       </c>
       <c r="I10">
-        <v>0.2712044135711587</v>
+        <v>0.09388389821633325</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4982705968658649</v>
+        <v>1.525111806194701</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.340672444135777</v>
+        <v>1.250160513608108</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.295966188748196</v>
+        <v>4.030878945796474</v>
       </c>
       <c r="C11">
-        <v>0.3525444107553426</v>
+        <v>1.069525084381894</v>
       </c>
       <c r="D11">
-        <v>0.1164862764087786</v>
+        <v>0.3407405775006538</v>
       </c>
       <c r="E11">
-        <v>0.1428765197177029</v>
+        <v>0.3226118621155933</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2878050018854736</v>
+        <v>0.4123570281297759</v>
       </c>
       <c r="H11">
-        <v>0.422552667882897</v>
+        <v>0.2381049362420384</v>
       </c>
       <c r="I11">
-        <v>0.2673759765222279</v>
+        <v>0.09324781978127916</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.5308341913336392</v>
+        <v>1.639529526446793</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.34455823886978</v>
+        <v>1.325925613340786</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.327713004071313</v>
+        <v>4.13211814952291</v>
       </c>
       <c r="C12">
-        <v>0.3606956353305009</v>
+        <v>1.095269954156265</v>
       </c>
       <c r="D12">
-        <v>0.1189361946117344</v>
+        <v>0.3499100702671996</v>
       </c>
       <c r="E12">
-        <v>0.1446086396982622</v>
+        <v>0.3319553127020356</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.2890696729692195</v>
+        <v>0.4231424326142843</v>
       </c>
       <c r="H12">
-        <v>0.4220414571107369</v>
+        <v>0.2412865999197606</v>
       </c>
       <c r="I12">
-        <v>0.265973945661937</v>
+        <v>0.09318751717332319</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.5431689035878833</v>
+        <v>1.683084573775673</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.346242384242913</v>
+        <v>1.355562275894044</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.320877544608493</v>
+        <v>4.110304847495854</v>
       </c>
       <c r="C13">
-        <v>0.3589407313249922</v>
+        <v>1.089722900425244</v>
       </c>
       <c r="D13">
-        <v>0.1184083225169559</v>
+        <v>0.3479324603084279</v>
       </c>
       <c r="E13">
-        <v>0.1442345734627253</v>
+        <v>0.3299344490116312</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.2887948786977574</v>
+        <v>0.420806113267048</v>
       </c>
       <c r="H13">
-        <v>0.4221494506247723</v>
+        <v>0.2405941729652312</v>
       </c>
       <c r="I13">
-        <v>0.2662737716379411</v>
+        <v>0.09319221949580481</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.5405122458207074</v>
+        <v>1.673693512970772</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.345870194916188</v>
+        <v>1.349135885988943</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.298578820362138</v>
+        <v>4.039203681914444</v>
       </c>
       <c r="C14">
-        <v>0.3532152903042629</v>
+        <v>1.071642049886776</v>
       </c>
       <c r="D14">
-        <v>0.1166877252295535</v>
+        <v>0.3414937091679491</v>
       </c>
       <c r="E14">
-        <v>0.1430185617035278</v>
+        <v>0.3233767201428108</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2879079551557311</v>
+        <v>0.4132383172303946</v>
       </c>
       <c r="H14">
-        <v>0.4225096619487232</v>
+        <v>0.2383634704684425</v>
       </c>
       <c r="I14">
-        <v>0.2672596727659986</v>
+        <v>0.09323914875014694</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.5318489046391903</v>
+        <v>1.643108057679626</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.344692525091403</v>
+        <v>1.328344331460158</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.284915009243889</v>
+        <v>3.995679603638507</v>
       </c>
       <c r="C15">
-        <v>0.3497065189711464</v>
+        <v>1.0605739392918</v>
       </c>
       <c r="D15">
-        <v>0.1156345077846623</v>
+        <v>0.3375578368870435</v>
       </c>
       <c r="E15">
-        <v>0.1422767094931459</v>
+        <v>0.3193846488713348</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2873717811719274</v>
+        <v>0.4086417848290722</v>
       </c>
       <c r="H15">
-        <v>0.4227364629870323</v>
+        <v>0.2370179372621806</v>
       </c>
       <c r="I15">
-        <v>0.2678697876322502</v>
+        <v>0.09329187951860263</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.5265428199631259</v>
+        <v>1.624404291232864</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.343998901829025</v>
+        <v>1.315734934926098</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.206534819155138</v>
+        <v>3.746648881404838</v>
       </c>
       <c r="C16">
-        <v>0.3295722994117511</v>
+        <v>0.9972447973034946</v>
       </c>
       <c r="D16">
-        <v>0.1096096473688419</v>
+        <v>0.3151203960429001</v>
       </c>
       <c r="E16">
-        <v>0.1380710216715926</v>
+        <v>0.296869148174963</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2844075548045168</v>
+        <v>0.3828749363410964</v>
       </c>
       <c r="H16">
-        <v>0.4241305081858258</v>
+        <v>0.2296161647448827</v>
       </c>
       <c r="I16">
-        <v>0.2714612732342871</v>
+        <v>0.09394988318165431</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4961430004091625</v>
+        <v>1.517664234204744</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.34044819287621</v>
+        <v>1.24533635598587</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.158382526592504</v>
+        <v>3.594188859438361</v>
       </c>
       <c r="C17">
-        <v>0.3171969717288334</v>
+        <v>0.9584726470574481</v>
       </c>
       <c r="D17">
-        <v>0.1059231446614888</v>
+        <v>0.3014543064797124</v>
       </c>
       <c r="E17">
-        <v>0.1355313433678447</v>
+        <v>0.2833607020070943</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.2826854329789228</v>
+        <v>0.3675555800815431</v>
       </c>
       <c r="H17">
-        <v>0.4250697885428565</v>
+        <v>0.2253400725488461</v>
       </c>
       <c r="I17">
-        <v>0.2737492303698339</v>
+        <v>0.0946585851667443</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4775002646230746</v>
+        <v>1.452550140082536</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.338647443802699</v>
+        <v>1.203734625104772</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.130661947697831</v>
+        <v>3.506599554327181</v>
       </c>
       <c r="C18">
-        <v>0.3100704597065089</v>
+        <v>0.9361972412698094</v>
       </c>
       <c r="D18">
-        <v>0.1038062782295839</v>
+        <v>0.293627743856959</v>
       </c>
       <c r="E18">
-        <v>0.1340853121181951</v>
+        <v>0.2756956939231756</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.2817301717169727</v>
+        <v>0.3589141461799699</v>
       </c>
       <c r="H18">
-        <v>0.4256408956850493</v>
+        <v>0.2229736023160456</v>
       </c>
       <c r="I18">
-        <v>0.2750962415793907</v>
+        <v>0.09517351159031406</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4667799253873426</v>
+        <v>1.415222387403261</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.337750033986254</v>
+        <v>1.18036028001228</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.121272054117412</v>
+        <v>3.47695958009291</v>
       </c>
       <c r="C19">
-        <v>0.3076560894550369</v>
+        <v>0.9286592031297118</v>
       </c>
       <c r="D19">
-        <v>0.1030901470116845</v>
+        <v>0.2909833892277618</v>
       </c>
       <c r="E19">
-        <v>0.1335982290149218</v>
+        <v>0.2731177882005582</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.2814127784180442</v>
+        <v>0.356016612131242</v>
       </c>
       <c r="H19">
-        <v>0.4258395587623198</v>
+        <v>0.2221879432511997</v>
       </c>
       <c r="I19">
-        <v>0.2755576391044698</v>
+        <v>0.09536584315170415</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4631506321093184</v>
+        <v>1.402604175098318</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.337469907824357</v>
+        <v>1.17253860348751</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.163510984368486</v>
+        <v>3.610407678730326</v>
       </c>
       <c r="C20">
-        <v>0.3185152345293432</v>
+        <v>0.9625973135543404</v>
       </c>
       <c r="D20">
-        <v>0.1063152156755791</v>
+        <v>0.3029055326044841</v>
       </c>
       <c r="E20">
-        <v>0.1358001699760507</v>
+        <v>0.2847877087156903</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.2828651034742506</v>
+        <v>0.3691685650210559</v>
       </c>
       <c r="H20">
-        <v>0.4249666059459258</v>
+        <v>0.2257855487089699</v>
       </c>
       <c r="I20">
-        <v>0.2735024590635753</v>
+        <v>0.09457193153026822</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.4794845613653251</v>
+        <v>1.459468557562047</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.338824810705063</v>
+        <v>1.20810524148277</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.305129582629093</v>
+        <v>4.060082020536697</v>
       </c>
       <c r="C21">
-        <v>0.354897361436997</v>
+        <v>1.076951368429121</v>
       </c>
       <c r="D21">
-        <v>0.1171929608913445</v>
+        <v>0.3433832347117658</v>
       </c>
       <c r="E21">
-        <v>0.1433751100691723</v>
+        <v>0.3252976880785354</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.2881669872683972</v>
+        <v>0.4154529864761116</v>
       </c>
       <c r="H21">
-        <v>0.4224025749359868</v>
+        <v>0.2390143141335415</v>
       </c>
       <c r="I21">
-        <v>0.2669687925726727</v>
+        <v>0.09322033723339729</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.5343934419784233</v>
+        <v>1.652085281820305</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.345032653441194</v>
+        <v>1.334424877386652</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.397454322275962</v>
+        <v>4.355162434311296</v>
       </c>
       <c r="C22">
-        <v>0.3785961751134437</v>
+        <v>1.151989207780844</v>
       </c>
       <c r="D22">
-        <v>0.1243334440717803</v>
+        <v>0.370191414508767</v>
       </c>
       <c r="E22">
-        <v>0.1484592967919625</v>
+        <v>0.3528606781757944</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.2919491190948946</v>
+        <v>0.4474206380175758</v>
       </c>
       <c r="H22">
-        <v>0.4210024837074542</v>
+        <v>0.2485810864411064</v>
       </c>
       <c r="I22">
-        <v>0.2629769097233918</v>
+        <v>0.09339739246804513</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.5703003931944011</v>
+        <v>1.779316023324085</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.350330061985147</v>
+        <v>1.42254414468519</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.34820058729872</v>
+        <v>4.197548736511351</v>
       </c>
       <c r="C23">
-        <v>0.3659550394675648</v>
+        <v>1.111908713925686</v>
       </c>
       <c r="D23">
-        <v>0.1205195761672826</v>
+        <v>0.3558483573153239</v>
       </c>
       <c r="E23">
-        <v>0.1457334364628196</v>
+        <v>0.3380423476334258</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.2899013659061325</v>
+        <v>0.4301912427797134</v>
       </c>
       <c r="H23">
-        <v>0.4217244748038667</v>
+        <v>0.2433861373491624</v>
       </c>
       <c r="I23">
-        <v>0.2650819037868857</v>
+        <v>0.09320054164855307</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.5511343278847249</v>
+        <v>1.711275337531305</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.347388849862739</v>
+        <v>1.374972275243834</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.16119252430741</v>
+        <v>3.603074960518313</v>
       </c>
       <c r="C24">
-        <v>0.3179192845538523</v>
+        <v>0.960732505234148</v>
       </c>
       <c r="D24">
-        <v>0.1061379524193171</v>
+        <v>0.3022493396051402</v>
       </c>
       <c r="E24">
-        <v>0.1356785896880481</v>
+        <v>0.2841422454996305</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.2827837660480981</v>
+        <v>0.3684388201025115</v>
       </c>
       <c r="H24">
-        <v>0.4250131579236154</v>
+        <v>0.2255838636490211</v>
       </c>
       <c r="I24">
-        <v>0.2736139258518548</v>
+        <v>0.094610773981195</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4785874682209084</v>
+        <v>1.456340409658225</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.338744193777529</v>
+        <v>1.206127601143038</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9585378408863789</v>
+        <v>2.965586123988317</v>
       </c>
       <c r="C25">
-        <v>0.2657795846029103</v>
+        <v>0.7985957374464761</v>
       </c>
       <c r="D25">
-        <v>0.09075928195700556</v>
+        <v>0.2457006505609769</v>
       </c>
       <c r="E25">
-        <v>0.125394285464985</v>
+        <v>0.2299314846712619</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.2764523517809891</v>
+        <v>0.3082220417880706</v>
       </c>
       <c r="H25">
-        <v>0.4297397701573118</v>
+        <v>0.2098924523727277</v>
       </c>
       <c r="I25">
-        <v>0.2840026764903012</v>
+        <v>0.1001826644365273</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4004287730640357</v>
+        <v>1.185983463963694</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.334703138439608</v>
+        <v>1.044868471274782</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.49795968569714</v>
+        <v>1.011997587340915</v>
       </c>
       <c r="C2">
-        <v>0.6796323458117968</v>
+        <v>0.2412007024357905</v>
       </c>
       <c r="D2">
-        <v>0.2048899721314967</v>
+        <v>0.197314020987065</v>
       </c>
       <c r="E2">
-        <v>0.1926572096345964</v>
+        <v>1.297093588374153</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.2683861099855207</v>
+        <v>0.3612786181767476</v>
       </c>
       <c r="H2">
-        <v>0.2009113075415812</v>
+        <v>0.005296417432249068</v>
       </c>
       <c r="I2">
-        <v>0.1072644942261896</v>
+        <v>0.0004732262099476081</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.310457020307183</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2784444502405208</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.9897274187503413</v>
+        <v>1.188485914405334</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.9410293281396207</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>1.36405952828126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.181489006322579</v>
+        <v>0.8832490501768291</v>
       </c>
       <c r="C3">
-        <v>0.5991009437086632</v>
+        <v>0.2150692291740484</v>
       </c>
       <c r="D3">
-        <v>0.1776282204270103</v>
+        <v>0.17143003669824</v>
       </c>
       <c r="E3">
-        <v>0.1687166872651531</v>
+        <v>1.129303002600452</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.2437470857636654</v>
+        <v>0.3457677202260356</v>
       </c>
       <c r="H3">
-        <v>0.196227572230562</v>
+        <v>0.003352989831823638</v>
       </c>
       <c r="I3">
-        <v>0.1136939016260996</v>
+        <v>0.0004586692023078598</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3076492815098248</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2801695059704699</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.8579512257328972</v>
+        <v>1.041057370261456</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0.8785716884117107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>1.324999893752462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.987203010118492</v>
+        <v>0.8039290614632648</v>
       </c>
       <c r="C4">
-        <v>0.5496498348804266</v>
+        <v>0.1992049894025314</v>
       </c>
       <c r="D4">
-        <v>0.161048654844052</v>
+        <v>0.1556446493262627</v>
       </c>
       <c r="E4">
-        <v>0.1545707815931863</v>
+        <v>1.026455414076182</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2296450705651836</v>
+        <v>0.3365859028724003</v>
       </c>
       <c r="H4">
-        <v>0.1939823749809477</v>
+        <v>0.002347263884709072</v>
       </c>
       <c r="I4">
-        <v>0.1183757662837976</v>
+        <v>0.0006237035469207619</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.3061627874545536</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2814379397831601</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.7774904909123563</v>
+        <v>0.9505590706117459</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.843708191721575</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>1.302231598993927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.908012079604617</v>
+        <v>0.7711945946882963</v>
       </c>
       <c r="C5">
-        <v>0.5294905160935173</v>
+        <v>0.1932554768652892</v>
       </c>
       <c r="D5">
-        <v>0.154327447301867</v>
+        <v>0.1492350589522715</v>
       </c>
       <c r="E5">
-        <v>0.1489319678855665</v>
+        <v>0.9845617206635069</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2241374209446221</v>
+        <v>0.3324364633943588</v>
       </c>
       <c r="H5">
-        <v>0.1932174478166218</v>
+        <v>0.001980551795375485</v>
       </c>
       <c r="I5">
-        <v>0.1204584492968497</v>
+        <v>0.0008003617527281293</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.3053589053628585</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2816409036681939</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.7447943205074452</v>
+        <v>0.9140796175303763</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0.830319160188381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>1.291671988782667</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.894860716280391</v>
+        <v>0.7653385499382068</v>
       </c>
       <c r="C6">
-        <v>0.5261424384874545</v>
+        <v>0.1928518394633301</v>
       </c>
       <c r="D6">
-        <v>0.1532133762098766</v>
+        <v>0.1481711455480763</v>
       </c>
       <c r="E6">
-        <v>0.1480028647734564</v>
+        <v>0.9775928931454416</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2232367785766414</v>
+        <v>0.3311560043579078</v>
       </c>
       <c r="H6">
-        <v>0.1930992504761306</v>
+        <v>0.001921316048348665</v>
       </c>
       <c r="I6">
-        <v>0.1208145558420206</v>
+        <v>0.0009226483468838254</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.3049168365845887</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2812331191045843</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.7393701279248361</v>
+        <v>0.9085138476753514</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.8281436857538154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1.288018355081775</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.986135117284192</v>
+        <v>0.8023474926125402</v>
       </c>
       <c r="C7">
-        <v>0.5493779981815976</v>
+        <v>0.2007174226873047</v>
       </c>
       <c r="D7">
-        <v>0.1609578745189282</v>
+        <v>0.1555553819272717</v>
       </c>
       <c r="E7">
-        <v>0.1544942425803342</v>
+        <v>1.025852493320386</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2295698491003719</v>
+        <v>0.3349014838161466</v>
       </c>
       <c r="H7">
-        <v>0.193971462517851</v>
+        <v>0.002339438401887328</v>
       </c>
       <c r="I7">
-        <v>0.1184031590029644</v>
+        <v>0.0008576643188327182</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.3053009668787396</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.280227943376282</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.7770491922894038</v>
+        <v>0.9514151214237359</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.8435243849171314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1.296854827295533</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.38881907164</v>
+        <v>0.9661335063471768</v>
       </c>
       <c r="C8">
-        <v>0.6518619926265785</v>
+        <v>0.234280368046214</v>
       </c>
       <c r="D8">
-        <v>0.1954539983144059</v>
+        <v>0.18836079456824</v>
       </c>
       <c r="E8">
-        <v>0.1842792239324353</v>
+        <v>1.239141172113136</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.2596657318731133</v>
+        <v>0.3537048225318387</v>
       </c>
       <c r="H8">
-        <v>0.1991601639411726</v>
+        <v>0.004580686973376213</v>
       </c>
       <c r="I8">
-        <v>0.1093229005839511</v>
+        <v>0.0007072880037926055</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3083192184942973</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2774008101823746</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.9441843998787149</v>
+        <v>1.139445274743366</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.9187343280074742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>1.34342580478301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.179960518623659</v>
+        <v>1.287453637450739</v>
       </c>
       <c r="C9">
-        <v>0.8531228994531261</v>
+        <v>0.2988390112726051</v>
       </c>
       <c r="D9">
-        <v>0.2646041476755272</v>
+        <v>0.2537028102470771</v>
       </c>
       <c r="E9">
-        <v>0.2477358285562659</v>
+        <v>1.659626058919642</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3277436515485874</v>
+        <v>0.3964844338710805</v>
       </c>
       <c r="H9">
-        <v>0.2147501529326519</v>
+        <v>0.01062497543497082</v>
       </c>
       <c r="I9">
-        <v>0.09781088678234795</v>
+        <v>0.001557445007483338</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3177553031610785</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2757797929261763</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1.276543602221494</v>
+        <v>1.506319873331478</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>1.096681442222575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1.454577298571962</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.764060341714469</v>
+        <v>1.522587951711216</v>
       </c>
       <c r="C10">
-        <v>1.001672644421063</v>
+        <v>0.3466721921330134</v>
       </c>
       <c r="D10">
-        <v>0.3166845456538852</v>
+        <v>0.3024923610548598</v>
       </c>
       <c r="E10">
-        <v>0.2984252456152419</v>
+        <v>1.871152850635227</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.3846466694449475</v>
+        <v>0.4211564655930999</v>
       </c>
       <c r="H10">
-        <v>0.2301170046085304</v>
+        <v>0.01580369718399055</v>
       </c>
       <c r="I10">
-        <v>0.09388389821633325</v>
+        <v>0.003319935187194645</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3216084524567009</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2712828312155615</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1.525111806194701</v>
+        <v>1.775707784050553</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>1.250160513608108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>1.515423174029621</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.030878945796474</v>
+        <v>1.632246938200097</v>
       </c>
       <c r="C11">
-        <v>1.069525084381894</v>
+        <v>0.3568342290275552</v>
       </c>
       <c r="D11">
-        <v>0.3407405775006538</v>
+        <v>0.3244574244763498</v>
       </c>
       <c r="E11">
-        <v>0.3226118621155933</v>
+        <v>1.198154886586536</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4123570281297759</v>
+        <v>0.3620295316938638</v>
       </c>
       <c r="H11">
-        <v>0.2381049362420384</v>
+        <v>0.03190889222104332</v>
       </c>
       <c r="I11">
-        <v>0.09324781978127916</v>
+        <v>0.004290627377344869</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.2882768360688459</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2353282480812666</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.639529526446793</v>
+        <v>1.885160312141068</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>1.325925613340786</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1.320444501517272</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.13211814952291</v>
+        <v>1.677549192793322</v>
       </c>
       <c r="C12">
-        <v>1.095269954156265</v>
+        <v>0.3528340146768585</v>
       </c>
       <c r="D12">
-        <v>0.3499100702671996</v>
+        <v>0.3326432277913227</v>
       </c>
       <c r="E12">
-        <v>0.3319553127020356</v>
+        <v>0.7156315005000806</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4231424326142843</v>
+        <v>0.3126255795850881</v>
       </c>
       <c r="H12">
-        <v>0.2412865999197606</v>
+        <v>0.06853412094886835</v>
       </c>
       <c r="I12">
-        <v>0.09318751717332319</v>
+        <v>0.004334277310440449</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2618837603823039</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2099193696392838</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.683084573775673</v>
+        <v>1.91856920521829</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.355562275894044</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1.16049216432431</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.110304847495854</v>
+        <v>1.673715274661276</v>
       </c>
       <c r="C13">
-        <v>1.089722900425244</v>
+        <v>0.3403077345075189</v>
       </c>
       <c r="D13">
-        <v>0.3479324603084279</v>
+        <v>0.330560920730008</v>
       </c>
       <c r="E13">
-        <v>0.3299344490116312</v>
+        <v>0.3517894046972501</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.420806113267048</v>
+        <v>0.2652611287476745</v>
       </c>
       <c r="H13">
-        <v>0.2405941729652312</v>
+        <v>0.122341862272549</v>
       </c>
       <c r="I13">
-        <v>0.09319221949580481</v>
+        <v>0.003989077189048729</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2379036710473414</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.1891232591758136</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.673693512970772</v>
+        <v>1.897258813372389</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>1.349135885988943</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>1.009830238459003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.039203681914444</v>
+        <v>1.648429644615959</v>
       </c>
       <c r="C14">
-        <v>1.071642049886776</v>
+        <v>0.328283457118431</v>
       </c>
       <c r="D14">
-        <v>0.3414937091679491</v>
+        <v>0.3244624290293103</v>
       </c>
       <c r="E14">
-        <v>0.3233767201428108</v>
+        <v>0.1690056895879266</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4132383172303946</v>
+        <v>0.2333374456042279</v>
       </c>
       <c r="H14">
-        <v>0.2383634704684425</v>
+        <v>0.1704551650016271</v>
       </c>
       <c r="I14">
-        <v>0.09323914875014694</v>
+        <v>0.003671147576137734</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2222884369723701</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.1767485567814333</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.643108057679626</v>
+        <v>1.858111329511559</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>1.328344331460158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.9093902194262995</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.995679603638507</v>
+        <v>1.631216672320477</v>
       </c>
       <c r="C15">
-        <v>1.0605739392918</v>
+        <v>0.3241722626600279</v>
       </c>
       <c r="D15">
-        <v>0.3375578368870435</v>
+        <v>0.3207887143827008</v>
       </c>
       <c r="E15">
-        <v>0.3193846488713348</v>
+        <v>0.1334577558634003</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4086417848290722</v>
+        <v>0.2251993286108629</v>
       </c>
       <c r="H15">
-        <v>0.2370179372621806</v>
+        <v>0.1825566250507649</v>
       </c>
       <c r="I15">
-        <v>0.09329187951860263</v>
+        <v>0.003620550066371742</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2186240721320516</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.1741705147756267</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.624404291232864</v>
+        <v>1.837476113766655</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>1.315734934926098</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0.8844287490313008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.746648881404838</v>
+        <v>1.529701950520717</v>
       </c>
       <c r="C16">
-        <v>0.9972447973034946</v>
+        <v>0.3073985621965818</v>
       </c>
       <c r="D16">
-        <v>0.3151203960429001</v>
+        <v>0.299990949470768</v>
       </c>
       <c r="E16">
-        <v>0.296869148174963</v>
+        <v>0.1305036334345608</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3828749363410964</v>
+        <v>0.2237961003193973</v>
       </c>
       <c r="H16">
-        <v>0.2296161647448827</v>
+        <v>0.1683043036873642</v>
       </c>
       <c r="I16">
-        <v>0.09394988318165431</v>
+        <v>0.003027926486252497</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2213784935630798</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.1795104104386258</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>1.517664234204744</v>
+        <v>1.726793211836963</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>1.24533635598587</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0.8870259277449151</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.594188859438361</v>
+        <v>1.465396013911231</v>
       </c>
       <c r="C17">
-        <v>0.9584726470574481</v>
+        <v>0.300952098948656</v>
       </c>
       <c r="D17">
-        <v>0.3014543064797124</v>
+        <v>0.2873530588002353</v>
       </c>
       <c r="E17">
-        <v>0.2833607020070943</v>
+        <v>0.2118128321576336</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3675555800815431</v>
+        <v>0.2393057158543144</v>
       </c>
       <c r="H17">
-        <v>0.2253400725488461</v>
+        <v>0.1299526002159155</v>
       </c>
       <c r="I17">
-        <v>0.0946585851667443</v>
+        <v>0.002776986469960718</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2316784676637909</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.1900110085106004</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1.452550140082536</v>
+        <v>1.662876947131679</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>1.203734625104772</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0.9413576613624173</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.506599554327181</v>
+        <v>1.426850039264366</v>
       </c>
       <c r="C18">
-        <v>0.9361972412698094</v>
+        <v>0.3013829965527322</v>
       </c>
       <c r="D18">
-        <v>0.293627743856959</v>
+        <v>0.2802144992569993</v>
       </c>
       <c r="E18">
-        <v>0.2756956939231756</v>
+        <v>0.4373808060412614</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3589141461799699</v>
+        <v>0.2737986328952076</v>
       </c>
       <c r="H18">
-        <v>0.2229736023160456</v>
+        <v>0.07759358518223536</v>
       </c>
       <c r="I18">
-        <v>0.09517351159031406</v>
+        <v>0.002484742172033982</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2508445150789527</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2078942038818976</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1.415222387403261</v>
+        <v>1.630646505415086</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1.18036028001228</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>1.054560046602504</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.47695958009291</v>
+        <v>1.409731264687224</v>
       </c>
       <c r="C19">
-        <v>0.9286592031297118</v>
+        <v>0.3106435673924466</v>
       </c>
       <c r="D19">
-        <v>0.2909833892277618</v>
+        <v>0.2779836855551849</v>
       </c>
       <c r="E19">
-        <v>0.2731177882005582</v>
+        <v>0.8591809742533343</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.356016612131242</v>
+        <v>0.32158306646798</v>
       </c>
       <c r="H19">
-        <v>0.2221879432511997</v>
+        <v>0.03418232647860009</v>
       </c>
       <c r="I19">
-        <v>0.09536584315170415</v>
+        <v>0.002701235539006142</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2756998599320255</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.230614069105048</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1.402604175098318</v>
+        <v>1.629121911204265</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.17253860348751</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>1.207912332247574</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.610407678730326</v>
+        <v>1.457244541595514</v>
       </c>
       <c r="C20">
-        <v>0.9625973135543404</v>
+        <v>0.3391144342359667</v>
       </c>
       <c r="D20">
-        <v>0.3029055326044841</v>
+        <v>0.2896007327858428</v>
       </c>
       <c r="E20">
-        <v>0.2847877087156903</v>
+        <v>1.811213141979167</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3691685650210559</v>
+        <v>0.409175725946497</v>
       </c>
       <c r="H20">
-        <v>0.2257855487089699</v>
+        <v>0.01430497105933881</v>
       </c>
       <c r="I20">
-        <v>0.09457193153026822</v>
+        <v>0.00349491654689249</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3177462003773286</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2685634948179718</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>1.459468557562047</v>
+        <v>1.709165098725606</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>1.20810524148277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1.481815843863842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.060082020536697</v>
+        <v>1.637458141676376</v>
       </c>
       <c r="C21">
-        <v>1.076951368429121</v>
+        <v>0.3778568932957569</v>
       </c>
       <c r="D21">
-        <v>0.3433832347117658</v>
+        <v>0.3274506182366252</v>
       </c>
       <c r="E21">
-        <v>0.3252976880785354</v>
+        <v>2.128889256724051</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4154529864761116</v>
+        <v>0.4426964942474569</v>
       </c>
       <c r="H21">
-        <v>0.2390143141335415</v>
+        <v>0.01949247925153297</v>
       </c>
       <c r="I21">
-        <v>0.09322033723339729</v>
+        <v>0.005153501677527039</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3280582217398518</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2724792341277364</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.652085281820305</v>
+        <v>1.918258724850318</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>1.334424877386652</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>1.574833752429441</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.355162434311296</v>
+        <v>1.756983915380914</v>
       </c>
       <c r="C22">
-        <v>1.151989207780844</v>
+        <v>0.4004775249603654</v>
       </c>
       <c r="D22">
-        <v>0.370191414508767</v>
+        <v>0.3523942016493322</v>
       </c>
       <c r="E22">
-        <v>0.3528606781757944</v>
+        <v>2.286622926541128</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4474206380175758</v>
+        <v>0.4630825587086491</v>
       </c>
       <c r="H22">
-        <v>0.2485810864411064</v>
+        <v>0.02293485104763504</v>
       </c>
       <c r="I22">
-        <v>0.09339739246804513</v>
+        <v>0.006178415555433858</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3341199037101461</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2748297353738245</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.779316023324085</v>
+        <v>2.052565691804375</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>1.42254414468519</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1.630970901306767</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.197548736511351</v>
+        <v>1.694590053460757</v>
       </c>
       <c r="C23">
-        <v>1.111908713925686</v>
+        <v>0.3864037500375446</v>
       </c>
       <c r="D23">
-        <v>0.3558483573153239</v>
+        <v>0.3390647655401011</v>
       </c>
       <c r="E23">
-        <v>0.3380423476334258</v>
+        <v>2.202409344004877</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4301912427797134</v>
+        <v>0.4540467113389042</v>
       </c>
       <c r="H23">
-        <v>0.2433861373491624</v>
+        <v>0.02107638738838657</v>
       </c>
       <c r="I23">
-        <v>0.09320054164855307</v>
+        <v>0.005335204473555066</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.3318303942163539</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2749278161508961</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.711275337531305</v>
+        <v>1.979193293516119</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>1.374972275243834</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>1.606900156589518</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.603074960518313</v>
+        <v>1.456031504802695</v>
       </c>
       <c r="C24">
-        <v>0.960732505234148</v>
+        <v>0.336815862866672</v>
       </c>
       <c r="D24">
-        <v>0.3022493396051402</v>
+        <v>0.2890334473615894</v>
       </c>
       <c r="E24">
-        <v>0.2841422454996305</v>
+        <v>1.885038307787852</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3684388201025115</v>
+        <v>0.4180125239485335</v>
       </c>
       <c r="H24">
-        <v>0.2255838636490211</v>
+        <v>0.01462520039895809</v>
       </c>
       <c r="I24">
-        <v>0.094610773981195</v>
+        <v>0.003057097477592308</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3222963131573948</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2737439254841725</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>1.456340409658225</v>
+        <v>1.704660159404114</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>1.206127601143038</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>1.510075535504058</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.965586123988317</v>
+        <v>1.198595164057593</v>
       </c>
       <c r="C25">
-        <v>0.7985957374464761</v>
+        <v>0.2841294431668473</v>
       </c>
       <c r="D25">
-        <v>0.2457006505609769</v>
+        <v>0.2358891638508851</v>
       </c>
       <c r="E25">
-        <v>0.2299314846712619</v>
+        <v>1.545455735303108</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3082220417880706</v>
+        <v>0.3816218630122137</v>
       </c>
       <c r="H25">
-        <v>0.2098924523727277</v>
+        <v>0.008783301655960585</v>
       </c>
       <c r="I25">
-        <v>0.1001826644365273</v>
+        <v>0.001545036488526996</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3134550286271036</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2738621370275425</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>1.185983463963694</v>
+        <v>1.409439215629249</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>1.044868471274782</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>1.413881593519733</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_12/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.011997587340915</v>
+        <v>0.9994064083095395</v>
       </c>
       <c r="C2">
-        <v>0.2412007024357905</v>
+        <v>0.2576021943522733</v>
       </c>
       <c r="D2">
-        <v>0.197314020987065</v>
+        <v>0.1974085919908362</v>
       </c>
       <c r="E2">
-        <v>1.297093588374153</v>
+        <v>1.298244703657801</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3612786181767476</v>
+        <v>0.3153497941210901</v>
       </c>
       <c r="H2">
-        <v>0.005296417432249068</v>
+        <v>0.005405922838892629</v>
       </c>
       <c r="I2">
-        <v>0.0004732262099476081</v>
+        <v>0.0006521622482305034</v>
       </c>
       <c r="J2">
-        <v>0.310457020307183</v>
+        <v>0.3297093102481625</v>
       </c>
       <c r="K2">
-        <v>0.2784444502405208</v>
+        <v>0.2525157760626016</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1400635123407064</v>
       </c>
       <c r="M2">
-        <v>1.188485914405334</v>
+        <v>0.0594980706851338</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>1.209965792419126</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.36405952828126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>1.272371175117414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8832490501768291</v>
+        <v>0.8751281748259601</v>
       </c>
       <c r="C3">
-        <v>0.2150692291740484</v>
+        <v>0.2251979519194407</v>
       </c>
       <c r="D3">
-        <v>0.17143003669824</v>
+        <v>0.1715541199446875</v>
       </c>
       <c r="E3">
-        <v>1.129303002600452</v>
+        <v>1.130935484971701</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3457677202260356</v>
+        <v>0.3046143458080266</v>
       </c>
       <c r="H3">
-        <v>0.003352989831823638</v>
+        <v>0.003486546071661545</v>
       </c>
       <c r="I3">
-        <v>0.0004586692023078598</v>
+        <v>0.0005044007215984081</v>
       </c>
       <c r="J3">
-        <v>0.3076492815098248</v>
+        <v>0.3264640276737012</v>
       </c>
       <c r="K3">
-        <v>0.2801695059704699</v>
+        <v>0.256373029146939</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1451107569609036</v>
       </c>
       <c r="M3">
-        <v>1.041057370261456</v>
+        <v>0.0585840628561094</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1.058098218823773</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.324999893752462</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>1.245750274843999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8039290614632648</v>
+        <v>0.7984599146732592</v>
       </c>
       <c r="C4">
-        <v>0.1992049894025314</v>
+        <v>0.2056112078356023</v>
       </c>
       <c r="D4">
-        <v>0.1556446493262627</v>
+        <v>0.1557805905029142</v>
       </c>
       <c r="E4">
-        <v>1.026455414076182</v>
+        <v>1.028347178865928</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.3365859028724003</v>
+        <v>0.2983563626210781</v>
       </c>
       <c r="H4">
-        <v>0.002347263884709072</v>
+        <v>0.002483807366369994</v>
       </c>
       <c r="I4">
-        <v>0.0006237035469207619</v>
+        <v>0.0005583490874321306</v>
       </c>
       <c r="J4">
-        <v>0.3061627874545536</v>
+        <v>0.3245299299723996</v>
       </c>
       <c r="K4">
-        <v>0.2814379397831601</v>
+        <v>0.25887762153803</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1483244316318846</v>
       </c>
       <c r="M4">
-        <v>0.9505590706117459</v>
+        <v>0.05851887282454449</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.9649214547366398</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.302231598993927</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>1.230266141492208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7711945946882963</v>
+        <v>0.7667945442131838</v>
       </c>
       <c r="C5">
-        <v>0.1932554768652892</v>
+        <v>0.1981930796416975</v>
       </c>
       <c r="D5">
-        <v>0.1492350589522715</v>
+        <v>0.1493744972481181</v>
       </c>
       <c r="E5">
-        <v>0.9845617206635069</v>
+        <v>0.9865514712826382</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.3324364633943588</v>
+        <v>0.2954327659714693</v>
       </c>
       <c r="H5">
-        <v>0.001980551795375485</v>
+        <v>0.002115569622440416</v>
       </c>
       <c r="I5">
-        <v>0.0008003617527281293</v>
+        <v>0.0006949798428586007</v>
       </c>
       <c r="J5">
-        <v>0.3053589053628585</v>
+        <v>0.3235069343229142</v>
       </c>
       <c r="K5">
-        <v>0.2816409036681939</v>
+        <v>0.2596015884829441</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.149488970224418</v>
       </c>
       <c r="M5">
-        <v>0.9140796175303763</v>
+        <v>0.0585407565339624</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.9273562293630278</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.291671988782667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>1.22268819941425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7653385499382068</v>
+        <v>0.7611279360539811</v>
       </c>
       <c r="C6">
-        <v>0.1928518394633301</v>
+        <v>0.197567896331492</v>
       </c>
       <c r="D6">
-        <v>0.1481711455480763</v>
+        <v>0.1483111332259597</v>
       </c>
       <c r="E6">
-        <v>0.9775928931454416</v>
+        <v>0.9795989535455618</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.3311560043579078</v>
+        <v>0.2944011523250154</v>
       </c>
       <c r="H6">
-        <v>0.001921316048348665</v>
+        <v>0.002055934208860632</v>
       </c>
       <c r="I6">
-        <v>0.0009226483468838254</v>
+        <v>0.0008266059444261842</v>
       </c>
       <c r="J6">
-        <v>0.3049168365845887</v>
+        <v>0.3230342568990565</v>
       </c>
       <c r="K6">
-        <v>0.2812331191045843</v>
+        <v>0.2593224834743761</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1494727930591573</v>
       </c>
       <c r="M6">
-        <v>0.9085138476753514</v>
+        <v>0.05845955482399479</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.9216021796707992</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.288018355081775</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>1.219646813201052</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8023474926125402</v>
+        <v>0.797062396617406</v>
       </c>
       <c r="C7">
-        <v>0.2007174226873047</v>
+        <v>0.2068976034681214</v>
       </c>
       <c r="D7">
-        <v>0.1555553819272717</v>
+        <v>0.1556893823915431</v>
       </c>
       <c r="E7">
-        <v>1.025852493320386</v>
+        <v>1.027717318069065</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.3349014838161466</v>
+        <v>0.2991470616586724</v>
       </c>
       <c r="H7">
-        <v>0.002339438401887328</v>
+        <v>0.002473872011105049</v>
       </c>
       <c r="I7">
-        <v>0.0008576643188327182</v>
+        <v>0.0008347644490225292</v>
       </c>
       <c r="J7">
-        <v>0.3053009668787396</v>
+        <v>0.3198061125675622</v>
       </c>
       <c r="K7">
-        <v>0.280227943376282</v>
+        <v>0.2573789153645052</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1475674325066585</v>
       </c>
       <c r="M7">
-        <v>0.9514151214237359</v>
+        <v>0.05814982898423349</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.9654933919548796</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.296854827295533</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1.222419806640005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9661335063471768</v>
+        <v>0.955601718399663</v>
       </c>
       <c r="C8">
-        <v>0.234280368046214</v>
+        <v>0.2476918741225944</v>
       </c>
       <c r="D8">
-        <v>0.18836079456824</v>
+        <v>0.1884591432751677</v>
       </c>
       <c r="E8">
-        <v>1.239141172113136</v>
+        <v>1.240368215295589</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.3537048225318387</v>
+        <v>0.3174149693480786</v>
       </c>
       <c r="H8">
-        <v>0.004580686973376213</v>
+        <v>0.004692085844551608</v>
       </c>
       <c r="I8">
-        <v>0.0007072880037926055</v>
+        <v>0.0008987301524978619</v>
       </c>
       <c r="J8">
-        <v>0.3083192184942973</v>
+        <v>0.3148827480497189</v>
       </c>
       <c r="K8">
-        <v>0.2774008101823746</v>
+        <v>0.2510489514472702</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1404943367182057</v>
       </c>
       <c r="M8">
-        <v>1.139445274743366</v>
+        <v>0.05827008760317121</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1.158532638073524</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.34342580478301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>1.247209642534855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.287453637450739</v>
+        <v>1.265284330113047</v>
       </c>
       <c r="C9">
-        <v>0.2988390112726051</v>
+        <v>0.3283080151632021</v>
       </c>
       <c r="D9">
-        <v>0.2537028102470771</v>
+        <v>0.2536784361129207</v>
       </c>
       <c r="E9">
-        <v>1.659626058919642</v>
+        <v>1.659365167720438</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3964844338710805</v>
+        <v>0.3503050420233222</v>
       </c>
       <c r="H9">
-        <v>0.01062497543497082</v>
+        <v>0.01059451164337891</v>
       </c>
       <c r="I9">
-        <v>0.001557445007483338</v>
+        <v>0.001841700150149173</v>
       </c>
       <c r="J9">
-        <v>0.3177553031610785</v>
+        <v>0.3208870594645745</v>
       </c>
       <c r="K9">
-        <v>0.2757797929261763</v>
+        <v>0.2432185807605052</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1291839452177967</v>
       </c>
       <c r="M9">
-        <v>1.506319873331478</v>
+        <v>0.06343508710373591</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1.536481543171249</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.454577298571962</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>1.322359487647219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.522587951711216</v>
+        <v>1.492636355751841</v>
       </c>
       <c r="C10">
-        <v>0.3466721921330134</v>
+        <v>0.3861674536576061</v>
       </c>
       <c r="D10">
-        <v>0.3024923610548598</v>
+        <v>0.3023112455349093</v>
       </c>
       <c r="E10">
-        <v>1.871152850635227</v>
+        <v>1.869422059901709</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4211564655930999</v>
+        <v>0.3829013221889284</v>
       </c>
       <c r="H10">
-        <v>0.01580369718399055</v>
+        <v>0.01557624091248488</v>
       </c>
       <c r="I10">
-        <v>0.003319935187194645</v>
+        <v>0.003496627110776807</v>
       </c>
       <c r="J10">
-        <v>0.3216084524567009</v>
+        <v>0.301388706040342</v>
       </c>
       <c r="K10">
-        <v>0.2712828312155615</v>
+        <v>0.2325796986500208</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.119431319215261</v>
       </c>
       <c r="M10">
-        <v>1.775707784050553</v>
+        <v>0.06739197129568453</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1.81205422715135</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.515423174029621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>1.342825444348904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.632246938200097</v>
+        <v>1.604611676537559</v>
       </c>
       <c r="C11">
-        <v>0.3568342290275552</v>
+        <v>0.39085853459855</v>
       </c>
       <c r="D11">
-        <v>0.3244574244763498</v>
+        <v>0.324192449222906</v>
       </c>
       <c r="E11">
-        <v>1.198154886586536</v>
+        <v>1.196321893754202</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.3620295316938638</v>
+        <v>0.358067250418614</v>
       </c>
       <c r="H11">
-        <v>0.03190889222104332</v>
+        <v>0.03162764312671129</v>
       </c>
       <c r="I11">
-        <v>0.004290627377344869</v>
+        <v>0.004484215109778589</v>
       </c>
       <c r="J11">
-        <v>0.2882768360688459</v>
+        <v>0.2391627615761109</v>
       </c>
       <c r="K11">
-        <v>0.2353282480812666</v>
+        <v>0.1991304552096764</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1055778391548579</v>
       </c>
       <c r="M11">
-        <v>1.885160312141068</v>
+        <v>0.05725890976418846</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1.916570170222116</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.320444501517272</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>1.139763079122616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.677549192793322</v>
+        <v>1.653111091673168</v>
       </c>
       <c r="C12">
-        <v>0.3528340146768585</v>
+        <v>0.3809918656706088</v>
       </c>
       <c r="D12">
-        <v>0.3326432277913227</v>
+        <v>0.3323543015800112</v>
       </c>
       <c r="E12">
-        <v>0.7156315005000806</v>
+        <v>0.7141225409208403</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.3126255795850881</v>
+        <v>0.3244530880877647</v>
       </c>
       <c r="H12">
-        <v>0.06853412094886835</v>
+        <v>0.06826115309485203</v>
       </c>
       <c r="I12">
-        <v>0.004334277310440449</v>
+        <v>0.004507967447389127</v>
       </c>
       <c r="J12">
-        <v>0.2618837603823039</v>
+        <v>0.2098131407309154</v>
       </c>
       <c r="K12">
-        <v>0.2099193696392838</v>
+        <v>0.1782455057661885</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09805187906997226</v>
       </c>
       <c r="M12">
-        <v>1.91856920521829</v>
+        <v>0.04948810004509951</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1.945265477818481</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.16049216432431</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0.991825823048103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.673715274661276</v>
+        <v>1.652972445099749</v>
       </c>
       <c r="C13">
-        <v>0.3403077345075189</v>
+        <v>0.3628447778790758</v>
       </c>
       <c r="D13">
-        <v>0.330560920730008</v>
+        <v>0.3303043420336707</v>
       </c>
       <c r="E13">
-        <v>0.3517894046972501</v>
+        <v>0.3507841054694083</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.2652611287476745</v>
+        <v>0.2757714176668742</v>
       </c>
       <c r="H13">
-        <v>0.122341862272549</v>
+        <v>0.1221207645630074</v>
       </c>
       <c r="I13">
-        <v>0.003989077189048729</v>
+        <v>0.004199413959331544</v>
       </c>
       <c r="J13">
-        <v>0.2379036710473414</v>
+        <v>0.1998420536532564</v>
       </c>
       <c r="K13">
-        <v>0.1891232591758136</v>
+        <v>0.1640251930185723</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09366810005219239</v>
       </c>
       <c r="M13">
-        <v>1.897258813372389</v>
+        <v>0.04287022993410439</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.919815183802541</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.009830238459003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0.8719877731276426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.648429644615959</v>
+        <v>1.630495494618287</v>
       </c>
       <c r="C14">
-        <v>0.328283457118431</v>
+        <v>0.3470053686960171</v>
       </c>
       <c r="D14">
-        <v>0.3244624290293103</v>
+        <v>0.3242517777039353</v>
       </c>
       <c r="E14">
-        <v>0.1690056895879266</v>
+        <v>0.1683434056307433</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.2333374456042279</v>
+        <v>0.2369596043957003</v>
       </c>
       <c r="H14">
-        <v>0.1704551650016271</v>
+        <v>0.170282856253607</v>
       </c>
       <c r="I14">
-        <v>0.003671147576137734</v>
+        <v>0.003941445853049785</v>
       </c>
       <c r="J14">
-        <v>0.2222884369723701</v>
+        <v>0.1990075796363833</v>
       </c>
       <c r="K14">
-        <v>0.1767485567814333</v>
+        <v>0.1567153572876236</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09170476158717733</v>
       </c>
       <c r="M14">
-        <v>1.858111329511559</v>
+        <v>0.03880933696910027</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1.87799435443506</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9093902194262995</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0.7990958541936379</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.631216672320477</v>
+        <v>1.614091888416596</v>
       </c>
       <c r="C15">
-        <v>0.3241722626600279</v>
+        <v>0.3419735825443979</v>
       </c>
       <c r="D15">
-        <v>0.3207887143827008</v>
+        <v>0.320600290403604</v>
       </c>
       <c r="E15">
-        <v>0.1334577558634003</v>
+        <v>0.1328958159995963</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.2251993286108629</v>
+        <v>0.2248897697246264</v>
       </c>
       <c r="H15">
-        <v>0.1825566250507649</v>
+        <v>0.1824045060020723</v>
       </c>
       <c r="I15">
-        <v>0.003620550066371742</v>
+        <v>0.003937410580037159</v>
       </c>
       <c r="J15">
-        <v>0.2186240721320516</v>
+        <v>0.2012373913677052</v>
       </c>
       <c r="K15">
-        <v>0.1741705147756267</v>
+        <v>0.1556763765596028</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09155824337668683</v>
       </c>
       <c r="M15">
-        <v>1.837476113766655</v>
+        <v>0.0378972398092241</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1.856794867577918</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.8844287490313008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0.7837305324382982</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.529701950520717</v>
+        <v>1.513808617550126</v>
       </c>
       <c r="C16">
-        <v>0.3073985621965818</v>
+        <v>0.3247102613954667</v>
       </c>
       <c r="D16">
-        <v>0.299990949470768</v>
+        <v>0.299900518439415</v>
       </c>
       <c r="E16">
-        <v>0.1305036334345608</v>
+        <v>0.1302149923302238</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.2237961003193973</v>
+        <v>0.2048598990277668</v>
       </c>
       <c r="H16">
-        <v>0.1683043036873642</v>
+        <v>0.1682332179913004</v>
       </c>
       <c r="I16">
-        <v>0.003027926486252497</v>
+        <v>0.003450139544064257</v>
       </c>
       <c r="J16">
-        <v>0.2213784935630798</v>
+        <v>0.2262755121246371</v>
       </c>
       <c r="K16">
-        <v>0.1795104104386258</v>
+        <v>0.1637205291811981</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09523660960815228</v>
       </c>
       <c r="M16">
-        <v>1.726793211836963</v>
+        <v>0.03894722461124367</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1.746723391547988</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.8870259277449151</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0.8118188579819616</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.465396013911231</v>
+        <v>1.44920513294727</v>
       </c>
       <c r="C17">
-        <v>0.300952098948656</v>
+        <v>0.3194886444605345</v>
       </c>
       <c r="D17">
-        <v>0.2873530588002353</v>
+        <v>0.2873062465091323</v>
       </c>
       <c r="E17">
-        <v>0.2118128321576336</v>
+        <v>0.2116331624604584</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.2393057158543144</v>
+        <v>0.2111940473840832</v>
       </c>
       <c r="H17">
-        <v>0.1299526002159155</v>
+        <v>0.1299154596019605</v>
       </c>
       <c r="I17">
-        <v>0.002776986469960718</v>
+        <v>0.003242877404071365</v>
       </c>
       <c r="J17">
-        <v>0.2316784676637909</v>
+        <v>0.246213221041728</v>
       </c>
       <c r="K17">
-        <v>0.1900110085106004</v>
+        <v>0.1737706151625016</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.09945723106178672</v>
       </c>
       <c r="M17">
-        <v>1.662876947131679</v>
+        <v>0.04164489587541276</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.684271801077614</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.9413576613624173</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0.8705713452541204</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.426850039264366</v>
+        <v>1.408695429475387</v>
       </c>
       <c r="C18">
-        <v>0.3013829965527322</v>
+        <v>0.3233316058079936</v>
       </c>
       <c r="D18">
-        <v>0.2802144992569993</v>
+        <v>0.2801801971394866</v>
       </c>
       <c r="E18">
-        <v>0.4373808060412614</v>
+        <v>0.4372065250922219</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.2737986328952076</v>
+        <v>0.2382337321002197</v>
       </c>
       <c r="H18">
-        <v>0.07759358518223536</v>
+        <v>0.07756438128867416</v>
       </c>
       <c r="I18">
-        <v>0.002484742172033982</v>
+        <v>0.002914275834014823</v>
       </c>
       <c r="J18">
-        <v>0.2508445150789527</v>
+        <v>0.2681546164508433</v>
       </c>
       <c r="K18">
-        <v>0.2078942038818976</v>
+        <v>0.1886659304528742</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1054035103403912</v>
       </c>
       <c r="M18">
-        <v>1.630646505415086</v>
+        <v>0.04666208427740415</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1.65496326729712</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.054560046602504</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0.9742390851977234</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.409731264687224</v>
+        <v>1.388385688360501</v>
       </c>
       <c r="C19">
-        <v>0.3106435673924466</v>
+        <v>0.3379782328058809</v>
       </c>
       <c r="D19">
-        <v>0.2779836855551849</v>
+        <v>0.2779386422714225</v>
       </c>
       <c r="E19">
-        <v>0.8591809742533343</v>
+        <v>0.8588711838252863</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.32158306646798</v>
+        <v>0.2786604570096642</v>
       </c>
       <c r="H19">
-        <v>0.03418232647860009</v>
+        <v>0.03413833693446833</v>
       </c>
       <c r="I19">
-        <v>0.002701235539006142</v>
+        <v>0.003148565641786227</v>
       </c>
       <c r="J19">
-        <v>0.2756998599320255</v>
+        <v>0.2915251998695041</v>
       </c>
       <c r="K19">
-        <v>0.230614069105048</v>
+        <v>0.2065333786051866</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1123140864192713</v>
       </c>
       <c r="M19">
-        <v>1.629121911204265</v>
+        <v>0.05325384910233311</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1.657453410020281</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.207912332247574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>1.108220448482029</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.457244541595514</v>
+        <v>1.429045684528234</v>
       </c>
       <c r="C20">
-        <v>0.3391144342359667</v>
+        <v>0.3772422312569859</v>
       </c>
       <c r="D20">
-        <v>0.2896007327858428</v>
+        <v>0.2894779821283038</v>
       </c>
       <c r="E20">
-        <v>1.811213141979167</v>
+        <v>1.810009386107168</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.409175725946497</v>
+        <v>0.3606277506128777</v>
       </c>
       <c r="H20">
-        <v>0.01430497105933881</v>
+        <v>0.01415104130498968</v>
       </c>
       <c r="I20">
-        <v>0.00349491654689249</v>
+        <v>0.003885223358978784</v>
       </c>
       <c r="J20">
-        <v>0.3177462003773286</v>
+        <v>0.3166082092885034</v>
       </c>
       <c r="K20">
-        <v>0.2685634948179718</v>
+        <v>0.2334631677502692</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1212358913274176</v>
       </c>
       <c r="M20">
-        <v>1.709165098725606</v>
+        <v>0.06549935311375776</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1.744717157221316</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.481815843863842</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>1.331521887002765</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.637458141676376</v>
+        <v>1.604941349702671</v>
       </c>
       <c r="C21">
-        <v>0.3778568932957569</v>
+        <v>0.4197327931897803</v>
       </c>
       <c r="D21">
-        <v>0.3274506182366252</v>
+        <v>0.3271156077869648</v>
       </c>
       <c r="E21">
-        <v>2.128889256724051</v>
+        <v>2.125704962363471</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4426964942474569</v>
+        <v>0.4467893090220372</v>
       </c>
       <c r="H21">
-        <v>0.01949247925153297</v>
+        <v>0.01905995839112395</v>
       </c>
       <c r="I21">
-        <v>0.005153501677527039</v>
+        <v>0.005287898391961754</v>
       </c>
       <c r="J21">
-        <v>0.3280582217398518</v>
+        <v>0.2491678377381419</v>
       </c>
       <c r="K21">
-        <v>0.2724792341277364</v>
+        <v>0.2238426130685411</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1136569216662693</v>
       </c>
       <c r="M21">
-        <v>1.918258724850318</v>
+        <v>0.06833400840240245</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.954612585905608</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.574833752429441</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1.334509761892093</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.756983915380914</v>
+        <v>1.722014346562361</v>
       </c>
       <c r="C22">
-        <v>0.4004775249603654</v>
+        <v>0.4438567364664436</v>
       </c>
       <c r="D22">
-        <v>0.3523942016493322</v>
+        <v>0.3518994595558524</v>
       </c>
       <c r="E22">
-        <v>2.286622926541128</v>
+        <v>2.282068390057432</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4630825587086491</v>
+        <v>0.5098156315401781</v>
       </c>
       <c r="H22">
-        <v>0.02293485104763504</v>
+        <v>0.02229364850600368</v>
       </c>
       <c r="I22">
-        <v>0.006178415555433858</v>
+        <v>0.006017479664913949</v>
       </c>
       <c r="J22">
-        <v>0.3341199037101461</v>
+        <v>0.2106401878175888</v>
       </c>
       <c r="K22">
-        <v>0.2748297353738245</v>
+        <v>0.2169636314450116</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1087371455516202</v>
       </c>
       <c r="M22">
-        <v>2.052565691804375</v>
+        <v>0.07014007456460902</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>2.088719328483279</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.630970901306767</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>1.328289753009784</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.694590053460757</v>
+        <v>1.660496935214638</v>
       </c>
       <c r="C23">
-        <v>0.3864037500375446</v>
+        <v>0.4296181097622878</v>
       </c>
       <c r="D23">
-        <v>0.3390647655401011</v>
+        <v>0.3386649503203927</v>
       </c>
       <c r="E23">
-        <v>2.202409344004877</v>
+        <v>2.198666021429574</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4540467113389042</v>
+        <v>0.4704541401073499</v>
       </c>
       <c r="H23">
-        <v>0.02107638738838657</v>
+        <v>0.02055899594518817</v>
       </c>
       <c r="I23">
-        <v>0.005335204473555066</v>
+        <v>0.005281955688314355</v>
       </c>
       <c r="J23">
-        <v>0.3318303942163539</v>
+        <v>0.2372310842762744</v>
       </c>
       <c r="K23">
-        <v>0.2749278161508961</v>
+        <v>0.222697029216306</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.112008054684976</v>
       </c>
       <c r="M23">
-        <v>1.979193293516119</v>
+        <v>0.07005192110100822</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>2.016160500885775</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.606900156589518</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>1.343972065181674</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.456031504802695</v>
+        <v>1.427447372313594</v>
       </c>
       <c r="C24">
-        <v>0.336815862866672</v>
+        <v>0.3753204194553632</v>
       </c>
       <c r="D24">
-        <v>0.2890334473615894</v>
+        <v>0.2889096266032993</v>
       </c>
       <c r="E24">
-        <v>1.885038307787852</v>
+        <v>1.883792346122505</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4180125239485335</v>
+        <v>0.368014881568385</v>
       </c>
       <c r="H24">
-        <v>0.01462520039895809</v>
+        <v>0.01446710376150828</v>
       </c>
       <c r="I24">
-        <v>0.003057097477592308</v>
+        <v>0.003345857997616442</v>
       </c>
       <c r="J24">
-        <v>0.3222963131573948</v>
+        <v>0.3212357405951707</v>
       </c>
       <c r="K24">
-        <v>0.2737439254841725</v>
+        <v>0.2377264287998138</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1228682131881342</v>
       </c>
       <c r="M24">
-        <v>1.704660159404114</v>
+        <v>0.06708100362775582</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1.740642569530195</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.510075535504058</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>1.356818777134663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.198595164057593</v>
+        <v>1.179552649786928</v>
       </c>
       <c r="C25">
-        <v>0.2841294431668473</v>
+        <v>0.309703175118301</v>
       </c>
       <c r="D25">
-        <v>0.2358891638508851</v>
+        <v>0.2359103432105343</v>
       </c>
       <c r="E25">
-        <v>1.545455735303108</v>
+        <v>1.545690643585985</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3816218630122137</v>
+        <v>0.3349746941945142</v>
       </c>
       <c r="H25">
-        <v>0.008783301655960585</v>
+        <v>0.008809322724291746</v>
       </c>
       <c r="I25">
-        <v>0.001545036488526996</v>
+        <v>0.001920865294932739</v>
       </c>
       <c r="J25">
-        <v>0.3134550286271036</v>
+        <v>0.3231182081441233</v>
       </c>
       <c r="K25">
-        <v>0.2738621370275425</v>
+        <v>0.243910772637097</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1316193512469557</v>
       </c>
       <c r="M25">
-        <v>1.409439215629249</v>
+        <v>0.06115325165862728</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.436899374002905</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.413881593519733</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1.296548127429006</v>
       </c>
     </row>
   </sheetData>
